--- a/v5/main_exp/regression_cov_orth.xlsx
+++ b/v5/main_exp/regression_cov_orth.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\v5\other_exp\reg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\v5\main_exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8CBB1F-0AD9-4146-BBFD-E24EC9B60343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCD6141-49B6-4593-B28F-527C565D9B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -997,2221 +997,2223 @@
     <t>-5.24%</t>
   </si>
   <si>
+    <t>565.4896,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>570.9327,(0.96%:7)</t>
+  </si>
+  <si>
+    <t>568.9367,(0.61%:6)</t>
+  </si>
+  <si>
+    <t>570.9978,(0.97%:8)</t>
+  </si>
+  <si>
+    <t>564.0141,(-0.26%:2)</t>
+  </si>
+  <si>
+    <t>563.9234,(-0.28%:1)</t>
+  </si>
+  <si>
+    <t>565.8932,(0.07%:4)</t>
+  </si>
+  <si>
+    <t>566.1615,(0.12%:5)</t>
+  </si>
+  <si>
+    <t>604.1518,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>587.3403,(-2.78%:4)</t>
+  </si>
+  <si>
+    <t>594.8473,(-1.54%:7)</t>
+  </si>
+  <si>
+    <t>587.1724,(-2.81%:3)</t>
+  </si>
+  <si>
+    <t>587.4461,(-2.77%:5)</t>
+  </si>
+  <si>
+    <t>587.7515,(-2.71%:6)</t>
+  </si>
+  <si>
+    <t>583.2296,(-3.46%:1)</t>
+  </si>
+  <si>
+    <t>586.9101,(-2.85%:2)</t>
+  </si>
+  <si>
+    <t>549.4801,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>541.8288,(-1.39%:4)</t>
+  </si>
+  <si>
+    <t>541.8899,(-1.38%:6)</t>
+  </si>
+  <si>
+    <t>541.8318,(-1.39%:5)</t>
+  </si>
+  <si>
+    <t>541.7565,(-1.41%:3)</t>
+  </si>
+  <si>
+    <t>542.0493,(-1.35%:7)</t>
+  </si>
+  <si>
+    <t>540.1867,(-1.69%:1)</t>
+  </si>
+  <si>
+    <t>541.6742,(-1.42%:2)</t>
+  </si>
+  <si>
+    <t>561.6000,(0.00%:7)</t>
+  </si>
+  <si>
+    <t>561.3616,(-0.04%:6)</t>
+  </si>
+  <si>
+    <t>561.7710,(0.03%:8)</t>
+  </si>
+  <si>
+    <t>561.0595,(-0.10%:5)</t>
+  </si>
+  <si>
+    <t>557.4862,(-0.73%:4)</t>
+  </si>
+  <si>
+    <t>557.2065,(-0.78%:3)</t>
+  </si>
+  <si>
+    <t>556.7921,(-0.86%:1)</t>
+  </si>
+  <si>
+    <t>557.0711,(-0.81%:2)</t>
+  </si>
+  <si>
+    <t>605.0028,(0.00%:6)</t>
+  </si>
+  <si>
+    <t>615.3409,(1.71%:7)</t>
+  </si>
+  <si>
+    <t>617.0359,(1.99%:8)</t>
+  </si>
+  <si>
+    <t>604.2906,(-0.12%:5)</t>
+  </si>
+  <si>
+    <t>597.1973,(-1.29%:4)</t>
+  </si>
+  <si>
+    <t>594.3208,(-1.77%:3)</t>
+  </si>
+  <si>
+    <t>591.9946,(-2.15%:1)</t>
+  </si>
+  <si>
+    <t>593.9572,(-1.83%:2)</t>
+  </si>
+  <si>
+    <t>1523.5922,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>760.2473,(-50.10%:6)</t>
+  </si>
+  <si>
+    <t>758.0215,(-50.25%:5)</t>
+  </si>
+  <si>
+    <t>765.3071,(-49.77%:7)</t>
+  </si>
+  <si>
+    <t>736.5236,(-51.66%:2)</t>
+  </si>
+  <si>
+    <t>749.9588,(-50.78%:4)</t>
+  </si>
+  <si>
+    <t>721.8169,(-52.62%:1)</t>
+  </si>
+  <si>
+    <t>738.5312,(-51.53%:3)</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>-8.61%</t>
+  </si>
+  <si>
+    <t>-8.42%</t>
+  </si>
+  <si>
+    <t>-8.87%</t>
+  </si>
+  <si>
+    <t>-9.69%</t>
+  </si>
+  <si>
+    <t>-10.12%</t>
+  </si>
+  <si>
+    <t>-9.72%</t>
+  </si>
+  <si>
+    <t>0.0019,(0.00%:4)</t>
+  </si>
+  <si>
+    <t>0.0019,(-0.66%:3)</t>
+  </si>
+  <si>
+    <t>0.0019,(-0.71%:2)</t>
+  </si>
+  <si>
+    <t>0.0019,(-0.76%:1)</t>
+  </si>
+  <si>
+    <t>0.0019,(0.59%:7)</t>
+  </si>
+  <si>
+    <t>0.0019,(0.10%:5)</t>
+  </si>
+  <si>
+    <t>0.0019,(0.26%:6)</t>
+  </si>
+  <si>
+    <t>0.0019,(0.77%:8)</t>
+  </si>
+  <si>
+    <t>0.0019,(0.00%:7)</t>
+  </si>
+  <si>
+    <t>0.0019,(-0.40%:3)</t>
+  </si>
+  <si>
+    <t>0.0019,(-0.42%:1)</t>
+  </si>
+  <si>
+    <t>0.0019,(-0.41%:2)</t>
+  </si>
+  <si>
+    <t>0.0019,(0.01%:8)</t>
+  </si>
+  <si>
+    <t>0.0019,(-0.12%:4)</t>
+  </si>
+  <si>
+    <t>0.0019,(-0.03%:6)</t>
+  </si>
+  <si>
+    <t>0.0019,(-0.12%:5)</t>
+  </si>
+  <si>
+    <t>0.0019,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>0.0019,(-1.09%:7)</t>
+  </si>
+  <si>
+    <t>0.0019,(-1.11%:6)</t>
+  </si>
+  <si>
+    <t>0.0019,(-1.23%:5)</t>
+  </si>
+  <si>
+    <t>0.0019,(-1.47%:4)</t>
+  </si>
+  <si>
+    <t>0.0019,(-1.53%:3)</t>
+  </si>
+  <si>
+    <t>0.0019,(-1.72%:2)</t>
+  </si>
+  <si>
+    <t>0.0019,(-1.74%:1)</t>
+  </si>
+  <si>
+    <t>0.0020,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>0.0020,(-0.59%:6)</t>
+  </si>
+  <si>
+    <t>0.0020,(-0.64%:4)</t>
+  </si>
+  <si>
+    <t>0.0020,(-0.62%:5)</t>
+  </si>
+  <si>
+    <t>0.0020,(-0.51%:7)</t>
+  </si>
+  <si>
+    <t>0.0020,(-0.65%:3)</t>
+  </si>
+  <si>
+    <t>0.0020,(-0.85%:1)</t>
+  </si>
+  <si>
+    <t>0.0020,(-0.74%:2)</t>
+  </si>
+  <si>
+    <t>0.0021,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>0.0020,(-1.52%:6)</t>
+  </si>
+  <si>
+    <t>0.0020,(-1.46%:7)</t>
+  </si>
+  <si>
+    <t>0.0020,(-1.93%:4)</t>
+  </si>
+  <si>
+    <t>0.0020,(-1.96%:3)</t>
+  </si>
+  <si>
+    <t>0.0020,(-2.12%:1)</t>
+  </si>
+  <si>
+    <t>0.0020,(-1.84%:5)</t>
+  </si>
+  <si>
+    <t>0.0020,(-2.06%:2)</t>
+  </si>
+  <si>
+    <t>0.0030,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>0.0026,(-11.31%:3)</t>
+  </si>
+  <si>
+    <t>0.0026,(-11.28%:4)</t>
+  </si>
+  <si>
+    <t>0.0027,(-10.74%:5)</t>
+  </si>
+  <si>
+    <t>0.0026,(-11.49%:2)</t>
+  </si>
+  <si>
+    <t>0.0027,(-9.54%:7)</t>
+  </si>
+  <si>
+    <t>0.0025,(-15.69%:1)</t>
+  </si>
+  <si>
+    <t>0.0027,(-10.62%:6)</t>
+  </si>
+  <si>
+    <t>5.17</t>
+  </si>
+  <si>
+    <t>-2.62%</t>
+  </si>
+  <si>
+    <t>-2.47%</t>
+  </si>
+  <si>
+    <t>-2.31%</t>
+  </si>
+  <si>
+    <t>-3.31%</t>
+  </si>
+  <si>
+    <t>-2.42%</t>
+  </si>
+  <si>
+    <t>qsar_aquatic_toxicity:regression</t>
+  </si>
+  <si>
+    <t>1.2276,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1.2380,(0.85%:3)</t>
+  </si>
+  <si>
+    <t>1.2526,(2.03%:4)</t>
+  </si>
+  <si>
+    <t>1.2380,(0.84%:2)</t>
+  </si>
+  <si>
+    <t>1.4340,(16.81%:8)</t>
+  </si>
+  <si>
+    <t>1.2931,(5.34%:6)</t>
+  </si>
+  <si>
+    <t>1.4311,(16.58%:7)</t>
+  </si>
+  <si>
+    <t>1.2931,(5.33%:5)</t>
+  </si>
+  <si>
+    <t>1.2339,(0.00%:6)</t>
+  </si>
+  <si>
+    <t>1.1902,(-3.54%:1)</t>
+  </si>
+  <si>
+    <t>1.1988,(-2.84%:5)</t>
+  </si>
+  <si>
+    <t>1.1904,(-3.52%:2)</t>
+  </si>
+  <si>
+    <t>1.2876,(4.35%:7)</t>
+  </si>
+  <si>
+    <t>1.1912,(-3.46%:3)</t>
+  </si>
+  <si>
+    <t>1.2884,(4.42%:8)</t>
+  </si>
+  <si>
+    <t>1.1913,(-3.45%:4)</t>
+  </si>
+  <si>
+    <t>1.2759,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1.3187,(3.35%:6)</t>
+  </si>
+  <si>
+    <t>1.3035,(2.16%:5)</t>
+  </si>
+  <si>
+    <t>1.3002,(1.90%:3)</t>
+  </si>
+  <si>
+    <t>1.3304,(4.27%:7)</t>
+  </si>
+  <si>
+    <t>1.2989,(1.80%:2)</t>
+  </si>
+  <si>
+    <t>1.3394,(4.97%:8)</t>
+  </si>
+  <si>
+    <t>1.3031,(2.13%:4)</t>
+  </si>
+  <si>
+    <t>1.1722,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1.2115,(3.35%:8)</t>
+  </si>
+  <si>
+    <t>1.2001,(2.38%:2)</t>
+  </si>
+  <si>
+    <t>1.2094,(3.18%:7)</t>
+  </si>
+  <si>
+    <t>1.2001,(2.38%:3)</t>
+  </si>
+  <si>
+    <t>1.2053,(2.82%:6)</t>
+  </si>
+  <si>
+    <t>1.2009,(2.45%:4)</t>
+  </si>
+  <si>
+    <t>1.2052,(2.82%:5)</t>
+  </si>
+  <si>
+    <t>1.2159,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1.2522,(2.99%:4)</t>
+  </si>
+  <si>
+    <t>1.2481,(2.65%:2)</t>
+  </si>
+  <si>
+    <t>1.2523,(2.99%:5)</t>
+  </si>
+  <si>
+    <t>1.2649,(4.03%:8)</t>
+  </si>
+  <si>
+    <t>1.2521,(2.98%:3)</t>
+  </si>
+  <si>
+    <t>1.2628,(3.86%:7)</t>
+  </si>
+  <si>
+    <t>1.2548,(3.20%:6)</t>
+  </si>
+  <si>
+    <t>1.3518,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>1.3127,(-2.89%:1)</t>
+  </si>
+  <si>
+    <t>1.3230,(-2.13%:5)</t>
+  </si>
+  <si>
+    <t>1.3128,(-2.89%:2)</t>
+  </si>
+  <si>
+    <t>1.3489,(-0.21%:6)</t>
+  </si>
+  <si>
+    <t>1.3128,(-2.88%:4)</t>
+  </si>
+  <si>
+    <t>1.3503,(-0.11%:7)</t>
+  </si>
+  <si>
+    <t>1.3128,(-2.89%:3)</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>0.68%</t>
+  </si>
+  <si>
+    <t>0.71%</t>
+  </si>
+  <si>
+    <t>0.42%</t>
+  </si>
+  <si>
+    <t>5.27%</t>
+  </si>
+  <si>
+    <t>1.10%</t>
+  </si>
+  <si>
+    <t>5.36%</t>
+  </si>
+  <si>
+    <t>1.19%</t>
+  </si>
+  <si>
+    <t>qsar_fish_toxicity:regression</t>
+  </si>
+  <si>
+    <t>0.8558,(0.00%:7)</t>
+  </si>
+  <si>
+    <t>0.8364,(-2.27%:3)</t>
+  </si>
+  <si>
+    <t>0.8725,(1.95%:8)</t>
+  </si>
+  <si>
+    <t>0.8364,(-2.27%:4)</t>
+  </si>
+  <si>
+    <t>0.8222,(-3.93%:2)</t>
+  </si>
+  <si>
+    <t>0.8399,(-1.86%:5)</t>
+  </si>
+  <si>
+    <t>0.8147,(-4.80%:1)</t>
+  </si>
+  <si>
+    <t>0.8473,(-1.00%:6)</t>
+  </si>
+  <si>
+    <t>1.1790,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>0.9030,(-23.41%:4)</t>
+  </si>
+  <si>
+    <t>0.9038,(-23.34%:5)</t>
+  </si>
+  <si>
+    <t>0.9001,(-23.66%:1)</t>
+  </si>
+  <si>
+    <t>0.9319,(-20.96%:6)</t>
+  </si>
+  <si>
+    <t>0.9016,(-23.53%:2)</t>
+  </si>
+  <si>
+    <t>0.9366,(-20.56%:7)</t>
+  </si>
+  <si>
+    <t>0.9020,(-23.49%:3)</t>
+  </si>
+  <si>
+    <t>0.8239,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.8163,(-0.92%:1)</t>
+  </si>
+  <si>
+    <t>0.8495,(3.11%:6)</t>
+  </si>
+  <si>
+    <t>0.8265,(0.32%:3)</t>
+  </si>
+  <si>
+    <t>0.8473,(2.85%:4)</t>
+  </si>
+  <si>
+    <t>0.8506,(3.25%:8)</t>
+  </si>
+  <si>
+    <t>0.8490,(3.04%:5)</t>
+  </si>
+  <si>
+    <t>0.8504,(3.22%:7)</t>
+  </si>
+  <si>
+    <t>0.8774,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>0.8594,(-2.05%:3)</t>
+  </si>
+  <si>
+    <t>0.8587,(-2.13%:2)</t>
+  </si>
+  <si>
+    <t>0.8580,(-2.21%:1)</t>
+  </si>
+  <si>
+    <t>0.8664,(-1.26%:6)</t>
+  </si>
+  <si>
+    <t>0.8639,(-1.54%:4)</t>
+  </si>
+  <si>
+    <t>0.8677,(-1.11%:7)</t>
+  </si>
+  <si>
+    <t>0.8650,(-1.41%:5)</t>
+  </si>
+  <si>
+    <t>0.8808,(0.00%:6)</t>
+  </si>
+  <si>
+    <t>0.8516,(-3.31%:1)</t>
+  </si>
+  <si>
+    <t>0.8547,(-2.96%:2)</t>
+  </si>
+  <si>
+    <t>0.8595,(-2.42%:5)</t>
+  </si>
+  <si>
+    <t>0.9246,(4.98%:7)</t>
+  </si>
+  <si>
+    <t>0.8567,(-2.74%:4)</t>
+  </si>
+  <si>
+    <t>0.9365,(6.33%:8)</t>
+  </si>
+  <si>
+    <t>0.8565,(-2.76%:3)</t>
+  </si>
+  <si>
+    <t>0.9674,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>0.8697,(-10.09%:6)</t>
+  </si>
+  <si>
+    <t>0.8861,(-8.40%:7)</t>
+  </si>
+  <si>
+    <t>0.8695,(-10.12%:5)</t>
+  </si>
+  <si>
+    <t>0.8672,(-10.36%:1)</t>
+  </si>
+  <si>
+    <t>0.8694,(-10.13%:4)</t>
+  </si>
+  <si>
+    <t>0.8691,(-10.16%:2)</t>
+  </si>
+  <si>
+    <t>0.8692,(-10.15%:3)</t>
+  </si>
+  <si>
+    <t>-7.01%</t>
+  </si>
+  <si>
+    <t>-5.30%</t>
+  </si>
+  <si>
+    <t>-6.72%</t>
+  </si>
+  <si>
+    <t>-6.09%</t>
+  </si>
+  <si>
+    <t>-4.54%</t>
+  </si>
+  <si>
+    <t>-5.93%</t>
+  </si>
+  <si>
+    <t>yacht_hydrodynamics:regression</t>
+  </si>
+  <si>
+    <t>3.7701,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>2.6987,(-28.42%:7)</t>
+  </si>
+  <si>
+    <t>2.1894,(-41.93%:5)</t>
+  </si>
+  <si>
+    <t>2.6983,(-28.43%:6)</t>
+  </si>
+  <si>
+    <t>1.9153,(-49.20%:2)</t>
+  </si>
+  <si>
+    <t>1.9528,(-48.20%:3)</t>
+  </si>
+  <si>
+    <t>2.0595,(-45.37%:4)</t>
+  </si>
+  <si>
+    <t>1.9071,(-49.42%:1)</t>
+  </si>
+  <si>
+    <t>4.4180,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>2.8817,(-34.77%:5)</t>
+  </si>
+  <si>
+    <t>2.3533,(-46.73%:1)</t>
+  </si>
+  <si>
+    <t>2.8805,(-34.80%:4)</t>
+  </si>
+  <si>
+    <t>2.4824,(-43.81%:3)</t>
+  </si>
+  <si>
+    <t>2.8951,(-34.47%:7)</t>
+  </si>
+  <si>
+    <t>2.3709,(-46.34%:2)</t>
+  </si>
+  <si>
+    <t>2.8920,(-34.54%:6)</t>
+  </si>
+  <si>
+    <t>1.3788,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>1.3109,(-4.93%:7)</t>
+  </si>
+  <si>
+    <t>1.2205,(-11.49%:1)</t>
+  </si>
+  <si>
+    <t>1.2699,(-7.90%:6)</t>
+  </si>
+  <si>
+    <t>1.2287,(-10.89%:2)</t>
+  </si>
+  <si>
+    <t>1.2344,(-10.47%:3)</t>
+  </si>
+  <si>
+    <t>1.2559,(-8.92%:5)</t>
+  </si>
+  <si>
+    <t>1.2417,(-9.94%:4)</t>
+  </si>
+  <si>
+    <t>4.6760,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>3.2586,(-30.31%:7)</t>
+  </si>
+  <si>
+    <t>2.9430,(-37.06%:5)</t>
+  </si>
+  <si>
+    <t>3.1289,(-33.09%:6)</t>
+  </si>
+  <si>
+    <t>2.3930,(-48.82%:1)</t>
+  </si>
+  <si>
+    <t>2.7283,(-41.65%:3)</t>
+  </si>
+  <si>
+    <t>2.4006,(-48.66%:2)</t>
+  </si>
+  <si>
+    <t>2.7336,(-41.54%:4)</t>
+  </si>
+  <si>
+    <t>4.4040,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>3.1816,(-27.76%:6)</t>
+  </si>
+  <si>
+    <t>2.4209,(-45.03%:5)</t>
+  </si>
+  <si>
+    <t>3.1841,(-27.70%:7)</t>
+  </si>
+  <si>
+    <t>1.9498,(-55.73%:2)</t>
+  </si>
+  <si>
+    <t>2.2375,(-49.19%:4)</t>
+  </si>
+  <si>
+    <t>1.9068,(-56.70%:1)</t>
+  </si>
+  <si>
+    <t>2.2366,(-49.21%:3)</t>
+  </si>
+  <si>
+    <t>11.7434,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>7.2388,(-38.36%:7)</t>
+  </si>
+  <si>
+    <t>7.2334,(-38.40%:5)</t>
+  </si>
+  <si>
+    <t>7.2377,(-38.37%:6)</t>
+  </si>
+  <si>
+    <t>6.5735,(-44.02%:2)</t>
+  </si>
+  <si>
+    <t>7.2315,(-38.42%:4)</t>
+  </si>
+  <si>
+    <t>6.5693,(-44.06%:1)</t>
+  </si>
+  <si>
+    <t>7.2307,(-38.43%:3)</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>-27.42%</t>
+  </si>
+  <si>
+    <t>-36.77%</t>
+  </si>
+  <si>
+    <t>-28.38%</t>
+  </si>
+  <si>
+    <t>-42.08%</t>
+  </si>
+  <si>
+    <t>-37.07%</t>
+  </si>
+  <si>
+    <t>-41.68%</t>
+  </si>
+  <si>
+    <t>-37.18%</t>
+  </si>
+  <si>
+    <t>superconductivty_data:regression</t>
+  </si>
+  <si>
+    <t>11.0102,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>10.9126,(-0.89%:1)</t>
+  </si>
+  <si>
+    <t>11.0126,(0.02%:6)</t>
+  </si>
+  <si>
+    <t>11.0009,(-0.08%:4)</t>
+  </si>
+  <si>
+    <t>10.9791,(-0.28%:3)</t>
+  </si>
+  <si>
+    <t>11.1063,(0.87%:7)</t>
+  </si>
+  <si>
+    <t>10.9216,(-0.80%:2)</t>
+  </si>
+  <si>
+    <t>11.1252,(1.04%:8)</t>
+  </si>
+  <si>
+    <t>11.0657,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>10.9625,(-0.93%:6)</t>
+  </si>
+  <si>
+    <t>10.9672,(-0.89%:7)</t>
+  </si>
+  <si>
+    <t>10.9601,(-0.95%:5)</t>
+  </si>
+  <si>
+    <t>10.9412,(-1.12%:4)</t>
+  </si>
+  <si>
+    <t>10.9215,(-1.30%:3)</t>
+  </si>
+  <si>
+    <t>10.8377,(-2.06%:1)</t>
+  </si>
+  <si>
+    <t>10.8886,(-1.60%:2)</t>
+  </si>
+  <si>
+    <t>10.9848,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>10.9979,(0.12%:6)</t>
+  </si>
+  <si>
+    <t>10.9995,(0.13%:8)</t>
+  </si>
+  <si>
+    <t>10.9992,(0.13%:7)</t>
+  </si>
+  <si>
+    <t>10.9453,(-0.36%:4)</t>
+  </si>
+  <si>
+    <t>10.9445,(-0.37%:3)</t>
+  </si>
+  <si>
+    <t>10.9108,(-0.67%:1)</t>
+  </si>
+  <si>
+    <t>10.9361,(-0.44%:2)</t>
+  </si>
+  <si>
+    <t>10.2152,(0.00%:7)</t>
+  </si>
+  <si>
+    <t>10.2128,(-0.02%:5)</t>
+  </si>
+  <si>
+    <t>10.2038,(-0.11%:3)</t>
+  </si>
+  <si>
+    <t>10.2188,(0.04%:8)</t>
+  </si>
+  <si>
+    <t>10.2137,(-0.01%:6)</t>
+  </si>
+  <si>
+    <t>10.2102,(-0.05%:4)</t>
+  </si>
+  <si>
+    <t>10.1607,(-0.53%:1)</t>
+  </si>
+  <si>
+    <t>10.1733,(-0.41%:2)</t>
+  </si>
+  <si>
+    <t>11.1937,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>10.9375,(-2.29%:5)</t>
+  </si>
+  <si>
+    <t>10.9396,(-2.27%:6)</t>
+  </si>
+  <si>
+    <t>10.9402,(-2.26%:7)</t>
+  </si>
+  <si>
+    <t>10.9045,(-2.58%:3)</t>
+  </si>
+  <si>
+    <t>10.9077,(-2.56%:4)</t>
+  </si>
+  <si>
+    <t>10.8754,(-2.84%:1)</t>
+  </si>
+  <si>
+    <t>10.8890,(-2.72%:2)</t>
+  </si>
+  <si>
+    <t>26.4685,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>16.8567,(-36.31%:1)</t>
+  </si>
+  <si>
+    <t>16.8938,(-36.17%:5)</t>
+  </si>
+  <si>
+    <t>16.8588,(-36.31%:2)</t>
+  </si>
+  <si>
+    <t>17.6488,(-33.32%:7)</t>
+  </si>
+  <si>
+    <t>16.8905,(-36.19%:4)</t>
+  </si>
+  <si>
+    <t>17.1615,(-35.16%:6)</t>
+  </si>
+  <si>
+    <t>16.8702,(-36.26%:3)</t>
+  </si>
+  <si>
+    <t>-6.55%</t>
+  </si>
+  <si>
+    <t>-6.57%</t>
+  </si>
+  <si>
+    <t>-6.28%</t>
+  </si>
+  <si>
+    <t>-6.60%</t>
+  </si>
+  <si>
+    <t>-6.73%</t>
+  </si>
+  <si>
+    <t>physicochemical_properties_of_protein_tertiary_structure:regression</t>
+  </si>
+  <si>
+    <t>3.8212,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>3.6984,(-3.22%:4)</t>
+  </si>
+  <si>
+    <t>3.6989,(-3.20%:6)</t>
+  </si>
+  <si>
+    <t>3.6989,(-3.20%:5)</t>
+  </si>
+  <si>
+    <t>3.7034,(-3.08%:7)</t>
+  </si>
+  <si>
+    <t>3.6921,(-3.38%:3)</t>
+  </si>
+  <si>
+    <t>3.6739,(-3.86%:1)</t>
+  </si>
+  <si>
+    <t>3.6856,(-3.55%:2)</t>
+  </si>
+  <si>
+    <t>3.6868,(0.00%:7)</t>
+  </si>
+  <si>
+    <t>3.6903,(0.09%:8)</t>
+  </si>
+  <si>
+    <t>3.6866,(-0.01%:5)</t>
+  </si>
+  <si>
+    <t>3.6867,(-0.00%:6)</t>
+  </si>
+  <si>
+    <t>3.6787,(-0.22%:2)</t>
+  </si>
+  <si>
+    <t>3.6802,(-0.18%:3)</t>
+  </si>
+  <si>
+    <t>3.6749,(-0.32%:1)</t>
+  </si>
+  <si>
+    <t>3.6813,(-0.15%:4)</t>
+  </si>
+  <si>
+    <t>3.6373,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>3.6173,(-0.55%:7)</t>
+  </si>
+  <si>
+    <t>3.6171,(-0.55%:5)</t>
+  </si>
+  <si>
+    <t>3.6172,(-0.55%:6)</t>
+  </si>
+  <si>
+    <t>3.6139,(-0.65%:4)</t>
+  </si>
+  <si>
+    <t>3.6101,(-0.75%:2)</t>
+  </si>
+  <si>
+    <t>3.6107,(-0.73%:3)</t>
+  </si>
+  <si>
+    <t>3.6093,(-0.77%:1)</t>
+  </si>
+  <si>
+    <t>3.4782,(0.00%:4)</t>
+  </si>
+  <si>
+    <t>3.4727,(-0.16%:2)</t>
+  </si>
+  <si>
+    <t>3.4712,(-0.20%:1)</t>
+  </si>
+  <si>
+    <t>3.4769,(-0.04%:3)</t>
+  </si>
+  <si>
+    <t>3.4856,(0.21%:6)</t>
+  </si>
+  <si>
+    <t>3.4905,(0.35%:8)</t>
+  </si>
+  <si>
+    <t>3.4832,(0.14%:5)</t>
+  </si>
+  <si>
+    <t>3.4887,(0.30%:7)</t>
+  </si>
+  <si>
+    <t>3.5745,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>3.5598,(-0.41%:7)</t>
+  </si>
+  <si>
+    <t>3.5420,(-0.91%:6)</t>
+  </si>
+  <si>
+    <t>3.5418,(-0.91%:5)</t>
+  </si>
+  <si>
+    <t>3.5192,(-1.55%:2)</t>
+  </si>
+  <si>
+    <t>3.5219,(-1.47%:3)</t>
+  </si>
+  <si>
+    <t>3.5126,(-1.73%:1)</t>
+  </si>
+  <si>
+    <t>3.5220,(-1.47%:4)</t>
+  </si>
+  <si>
+    <t>4.4640,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>4.0780,(-8.65%:5)</t>
+  </si>
+  <si>
+    <t>4.0756,(-8.70%:3)</t>
+  </si>
+  <si>
+    <t>4.0738,(-8.74%:2)</t>
+  </si>
+  <si>
+    <t>4.0857,(-8.47%:7)</t>
+  </si>
+  <si>
+    <t>4.0814,(-8.57%:6)</t>
+  </si>
+  <si>
+    <t>4.0634,(-8.97%:1)</t>
+  </si>
+  <si>
+    <t>4.0779,(-8.65%:4)</t>
+  </si>
+  <si>
+    <t>-2.15%</t>
+  </si>
+  <si>
+    <t>-2.26%</t>
+  </si>
+  <si>
+    <t>-2.24%</t>
+  </si>
+  <si>
+    <t>-2.29%</t>
+  </si>
+  <si>
+    <t>-2.33%</t>
+  </si>
+  <si>
+    <t>-2.58%</t>
+  </si>
+  <si>
+    <t>-2.38%</t>
+  </si>
+  <si>
+    <t>Brazilian_houses:regression</t>
+  </si>
+  <si>
+    <t>1039.7982,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>932.2776,(-10.34%:7)</t>
+  </si>
+  <si>
+    <t>895.8303,(-13.85%:4)</t>
+  </si>
+  <si>
+    <t>903.7180,(-13.09%:5)</t>
+  </si>
+  <si>
+    <t>820.0996,(-21.13%:2)</t>
+  </si>
+  <si>
+    <t>856.8474,(-17.59%:3)</t>
+  </si>
+  <si>
+    <t>803.8760,(-22.69%:1)</t>
+  </si>
+  <si>
+    <t>930.5469,(-10.51%:6)</t>
+  </si>
+  <si>
+    <t>1108.3467,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1148.6916,(3.64%:2)</t>
+  </si>
+  <si>
+    <t>1432.1433,(29.21%:7)</t>
+  </si>
+  <si>
+    <t>1529.4777,(38.00%:8)</t>
+  </si>
+  <si>
+    <t>1388.6386,(25.29%:4)</t>
+  </si>
+  <si>
+    <t>1418.4369,(27.98%:6)</t>
+  </si>
+  <si>
+    <t>1366.8690,(23.33%:3)</t>
+  </si>
+  <si>
+    <t>1391.7024,(25.57%:5)</t>
+  </si>
+  <si>
+    <t>1235.8664,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2607.1652,(110.96%:2)</t>
+  </si>
+  <si>
+    <t>2684.7697,(117.24%:3)</t>
+  </si>
+  <si>
+    <t>3017.4708,(144.16%:8)</t>
+  </si>
+  <si>
+    <t>2867.7005,(132.04%:5)</t>
+  </si>
+  <si>
+    <t>2943.8230,(138.20%:7)</t>
+  </si>
+  <si>
+    <t>2872.8573,(132.46%:6)</t>
+  </si>
+  <si>
+    <t>2778.4112,(124.81%:4)</t>
+  </si>
+  <si>
+    <t>1056.9447,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1044.4864,(-1.18%:1)</t>
+  </si>
+  <si>
+    <t>1383.0853,(30.86%:3)</t>
+  </si>
+  <si>
+    <t>1389.3255,(31.45%:4)</t>
+  </si>
+  <si>
+    <t>1481.9686,(40.21%:5)</t>
+  </si>
+  <si>
+    <t>1491.0466,(41.07%:6)</t>
+  </si>
+  <si>
+    <t>1649.2268,(56.04%:8)</t>
+  </si>
+  <si>
+    <t>1502.7598,(42.18%:7)</t>
+  </si>
+  <si>
+    <t>1699.6276,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>1075.8727,(-36.70%:2)</t>
+  </si>
+  <si>
+    <t>1239.9727,(-27.04%:6)</t>
+  </si>
+  <si>
+    <t>1246.2788,(-26.67%:7)</t>
+  </si>
+  <si>
+    <t>1043.5309,(-38.60%:1)</t>
+  </si>
+  <si>
+    <t>1107.7411,(-34.82%:3)</t>
+  </si>
+  <si>
+    <t>1140.9658,(-32.87%:4)</t>
+  </si>
+  <si>
+    <t>1203.9932,(-29.16%:5)</t>
+  </si>
+  <si>
+    <t>1766.6207,(0.00%:4)</t>
+  </si>
+  <si>
+    <t>1901.1896,(7.62%:6)</t>
+  </si>
+  <si>
+    <t>1593.4921,(-9.80%:2)</t>
+  </si>
+  <si>
+    <t>1585.9279,(-10.23%:1)</t>
+  </si>
+  <si>
+    <t>2027.3878,(14.76%:7)</t>
+  </si>
+  <si>
+    <t>2107.9887,(19.32%:8)</t>
+  </si>
+  <si>
+    <t>1643.5367,(-6.97%:3)</t>
+  </si>
+  <si>
+    <t>1794.4061,(1.57%:5)</t>
+  </si>
+  <si>
+    <t>12.33%</t>
+  </si>
+  <si>
+    <t>21.10%</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
+    <t>25.43%</t>
+  </si>
+  <si>
+    <t>29.03%</t>
+  </si>
+  <si>
+    <t>24.88%</t>
+  </si>
+  <si>
+    <t>25.74%</t>
+  </si>
+  <si>
+    <t>colleges:regression</t>
+  </si>
+  <si>
+    <t>0.1505,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1525,(1.30%:2)</t>
+  </si>
+  <si>
+    <t>0.1558,(3.54%:5)</t>
+  </si>
+  <si>
+    <t>0.1525,(1.30%:3)</t>
+  </si>
+  <si>
+    <t>0.1575,(4.65%:8)</t>
+  </si>
+  <si>
+    <t>0.1572,(4.44%:6)</t>
+  </si>
+  <si>
+    <t>0.1573,(4.51%:7)</t>
+  </si>
+  <si>
+    <t>0.1531,(1.76%:4)</t>
+  </si>
+  <si>
+    <t>0.1544,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1551,(0.46%:2)</t>
+  </si>
+  <si>
+    <t>0.1562,(1.16%:5)</t>
+  </si>
+  <si>
+    <t>0.1565,(1.33%:7)</t>
+  </si>
+  <si>
+    <t>0.1560,(1.03%:3)</t>
+  </si>
+  <si>
+    <t>0.1564,(1.28%:6)</t>
+  </si>
+  <si>
+    <t>0.1565,(1.33%:8)</t>
+  </si>
+  <si>
+    <t>0.1562,(1.15%:4)</t>
+  </si>
+  <si>
+    <t>0.1509,(0.00%:7)</t>
+  </si>
+  <si>
+    <t>0.1509,(0.01%:8)</t>
+  </si>
+  <si>
+    <t>0.1491,(-1.17%:6)</t>
+  </si>
+  <si>
+    <t>0.1489,(-1.31%:5)</t>
+  </si>
+  <si>
+    <t>0.1486,(-1.49%:2)</t>
+  </si>
+  <si>
+    <t>0.1487,(-1.48%:4)</t>
+  </si>
+  <si>
+    <t>0.1486,(-1.53%:1)</t>
+  </si>
+  <si>
+    <t>0.1487,(-1.49%:3)</t>
+  </si>
+  <si>
+    <t>0.1517,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1517,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1520,(0.18%:8)</t>
+  </si>
+  <si>
+    <t>0.1518,(0.02%:5)</t>
+  </si>
+  <si>
+    <t>0.1518,(0.03%:7)</t>
+  </si>
+  <si>
+    <t>0.1518,(0.03%:6)</t>
+  </si>
+  <si>
+    <t>0.1518,(0.01%:3)</t>
+  </si>
+  <si>
+    <t>0.1518,(0.02%:4)</t>
+  </si>
+  <si>
+    <t>0.1487,(0.00%:7)</t>
+  </si>
+  <si>
+    <t>0.1487,(0.05%:8)</t>
+  </si>
+  <si>
+    <t>0.1483,(-0.21%:5)</t>
+  </si>
+  <si>
+    <t>0.1484,(-0.20%:6)</t>
+  </si>
+  <si>
+    <t>0.1474,(-0.88%:2)</t>
+  </si>
+  <si>
+    <t>0.1476,(-0.72%:4)</t>
+  </si>
+  <si>
+    <t>0.1473,(-0.92%:1)</t>
+  </si>
+  <si>
+    <t>0.1474,(-0.85%:3)</t>
+  </si>
+  <si>
+    <t>0.1829,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>0.1796,(-1.77%:7)</t>
+  </si>
+  <si>
+    <t>0.1726,(-5.63%:5)</t>
+  </si>
+  <si>
+    <t>0.1796,(-1.77%:6)</t>
+  </si>
+  <si>
+    <t>0.1695,(-7.32%:2)</t>
+  </si>
+  <si>
+    <t>0.1709,(-6.53%:4)</t>
+  </si>
+  <si>
+    <t>0.1689,(-7.66%:1)</t>
+  </si>
+  <si>
+    <t>0.1705,(-6.77%:3)</t>
+  </si>
+  <si>
+    <t>4.83</t>
+  </si>
+  <si>
+    <t>0.01%</t>
+  </si>
+  <si>
+    <t>-0.36%</t>
+  </si>
+  <si>
+    <t>-0.11%</t>
+  </si>
+  <si>
+    <t>-0.66%</t>
+  </si>
+  <si>
+    <t>-0.50%</t>
+  </si>
+  <si>
+    <t>-0.71%</t>
+  </si>
+  <si>
+    <t>-1.03%</t>
+  </si>
+  <si>
+    <t>House_16H:regression</t>
+  </si>
+  <si>
+    <t>31039.7870,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>31414.9182,(1.21%:2)</t>
+  </si>
+  <si>
+    <t>31439.8839,(1.29%:4)</t>
+  </si>
+  <si>
+    <t>31431.7548,(1.26%:3)</t>
+  </si>
+  <si>
+    <t>32724.4555,(5.43%:6)</t>
+  </si>
+  <si>
+    <t>32700.0908,(5.35%:5)</t>
+  </si>
+  <si>
+    <t>33285.2068,(7.23%:8)</t>
+  </si>
+  <si>
+    <t>32745.5761,(5.50%:7)</t>
+  </si>
+  <si>
+    <t>31126.6423,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>31395.5274,(0.86%:5)</t>
+  </si>
+  <si>
+    <t>31418.6438,(0.94%:6)</t>
+  </si>
+  <si>
+    <t>31425.7241,(0.96%:7)</t>
+  </si>
+  <si>
+    <t>31241.3736,(0.37%:2)</t>
+  </si>
+  <si>
+    <t>31306.5881,(0.58%:3)</t>
+  </si>
+  <si>
+    <t>31605.4545,(1.54%:8)</t>
+  </si>
+  <si>
+    <t>31315.6458,(0.61%:4)</t>
+  </si>
+  <si>
+    <t>30012.1929,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>30044.4474,(0.11%:2)</t>
+  </si>
+  <si>
+    <t>30236.0053,(0.75%:3)</t>
+  </si>
+  <si>
+    <t>30318.1080,(1.02%:7)</t>
+  </si>
+  <si>
+    <t>30263.4915,(0.84%:5)</t>
+  </si>
+  <si>
+    <t>30287.9058,(0.92%:6)</t>
+  </si>
+  <si>
+    <t>30239.0869,(0.76%:4)</t>
+  </si>
+  <si>
+    <t>30320.7548,(1.03%:8)</t>
+  </si>
+  <si>
+    <t>31529.0872,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>31337.2709,(-0.61%:5)</t>
+  </si>
+  <si>
+    <t>31340.4078,(-0.60%:6)</t>
+  </si>
+  <si>
+    <t>31340.4592,(-0.60%:7)</t>
+  </si>
+  <si>
+    <t>31324.2205,(-0.65%:1)</t>
+  </si>
+  <si>
+    <t>31332.5993,(-0.62%:2)</t>
+  </si>
+  <si>
+    <t>31336.7987,(-0.61%:4)</t>
+  </si>
+  <si>
+    <t>31333.8238,(-0.62%:3)</t>
+  </si>
+  <si>
+    <t>32094.2225,(0.00%:6)</t>
+  </si>
+  <si>
+    <t>32077.4640,(-0.05%:5)</t>
+  </si>
+  <si>
+    <t>32105.9789,(0.04%:7)</t>
+  </si>
+  <si>
+    <t>32114.1577,(0.06%:8)</t>
+  </si>
+  <si>
+    <t>31880.8600,(-0.66%:1)</t>
+  </si>
+  <si>
+    <t>31908.7202,(-0.58%:2)</t>
+  </si>
+  <si>
+    <t>31954.5573,(-0.44%:3)</t>
+  </si>
+  <si>
+    <t>31977.0097,(-0.37%:4)</t>
+  </si>
+  <si>
+    <t>42559.8496,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>39979.4859,(-6.06%:5)</t>
+  </si>
+  <si>
+    <t>40631.4677,(-4.53%:7)</t>
+  </si>
+  <si>
+    <t>39980.4211,(-6.06%:6)</t>
+  </si>
+  <si>
+    <t>38836.1928,(-8.75%:1)</t>
+  </si>
+  <si>
+    <t>39691.6939,(-6.74%:4)</t>
+  </si>
+  <si>
+    <t>38918.7485,(-8.56%:2)</t>
+  </si>
+  <si>
+    <t>39679.2833,(-6.77%:3)</t>
+  </si>
+  <si>
+    <t>-0.35%</t>
+  </si>
+  <si>
+    <t>-0.56%</t>
+  </si>
+  <si>
+    <t>-0.57%</t>
+  </si>
+  <si>
+    <t>-0.18%</t>
+  </si>
+  <si>
+    <t>-0.01%</t>
+  </si>
+  <si>
+    <t>-0.10%</t>
+  </si>
+  <si>
+    <t>house_sales:regression</t>
+  </si>
+  <si>
+    <t>122265.4221,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>132909.4048,(8.71%:8)</t>
+  </si>
+  <si>
+    <t>120989.2703,(-1.04%:2)</t>
+  </si>
+  <si>
+    <t>120912.2228,(-1.11%:1)</t>
+  </si>
+  <si>
+    <t>128894.9734,(5.42%:7)</t>
+  </si>
+  <si>
+    <t>126765.8830,(3.68%:4)</t>
+  </si>
+  <si>
+    <t>128288.1929,(4.93%:6)</t>
+  </si>
+  <si>
+    <t>127769.9770,(4.50%:5)</t>
+  </si>
+  <si>
+    <t>122534.5506,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>128598.6535,(4.95%:6)</t>
+  </si>
+  <si>
+    <t>128917.6401,(5.21%:8)</t>
+  </si>
+  <si>
+    <t>128690.5362,(5.02%:7)</t>
+  </si>
+  <si>
+    <t>125101.2660,(2.09%:3)</t>
+  </si>
+  <si>
+    <t>125552.6690,(2.46%:4)</t>
+  </si>
+  <si>
+    <t>125616.1654,(2.51%:5)</t>
+  </si>
+  <si>
+    <t>124843.0962,(1.88%:2)</t>
+  </si>
+  <si>
+    <t>124223.6029,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>118077.7572,(-4.95%:5)</t>
+  </si>
+  <si>
+    <t>118717.3249,(-4.43%:7)</t>
+  </si>
+  <si>
+    <t>118476.6205,(-4.63%:6)</t>
+  </si>
+  <si>
+    <t>116435.9452,(-6.27%:4)</t>
+  </si>
+  <si>
+    <t>115377.5156,(-7.12%:1)</t>
+  </si>
+  <si>
+    <t>116327.6350,(-6.36%:3)</t>
+  </si>
+  <si>
+    <t>115986.1711,(-6.63%:2)</t>
+  </si>
+  <si>
+    <t>125339.7829,(0.00%:4)</t>
+  </si>
+  <si>
+    <t>134472.0846,(7.29%:8)</t>
+  </si>
+  <si>
+    <t>130293.0881,(3.95%:7)</t>
+  </si>
+  <si>
+    <t>129799.3785,(3.56%:6)</t>
+  </si>
+  <si>
+    <t>125503.3986,(0.13%:5)</t>
+  </si>
+  <si>
+    <t>125200.1664,(-0.11%:3)</t>
+  </si>
+  <si>
+    <t>124789.7996,(-0.44%:1)</t>
+  </si>
+  <si>
+    <t>125017.5884,(-0.26%:2)</t>
+  </si>
+  <si>
+    <t>128126.7357,(0.00%:5)</t>
+  </si>
+  <si>
+    <t>135882.6108,(6.05%:7)</t>
+  </si>
+  <si>
+    <t>135970.7700,(6.12%:8)</t>
+  </si>
+  <si>
+    <t>133561.8220,(4.24%:6)</t>
+  </si>
+  <si>
+    <t>127689.8864,(-0.34%:4)</t>
+  </si>
+  <si>
+    <t>125828.7739,(-1.79%:3)</t>
+  </si>
+  <si>
+    <t>125124.5107,(-2.34%:1)</t>
+  </si>
+  <si>
+    <t>125550.6364,(-2.01%:2)</t>
+  </si>
+  <si>
+    <t>183995.0293,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>170371.6812,(-7.40%:1)</t>
+  </si>
+  <si>
+    <t>174309.3058,(-5.26%:3)</t>
+  </si>
+  <si>
+    <t>171333.3133,(-6.88%:2)</t>
+  </si>
+  <si>
+    <t>175630.3125,(-4.55%:5)</t>
+  </si>
+  <si>
+    <t>178478.3599,(-3.00%:7)</t>
+  </si>
+  <si>
+    <t>174432.0201,(-5.20%:4)</t>
+  </si>
+  <si>
+    <t>176553.8269,(-4.04%:6)</t>
+  </si>
+  <si>
+    <t>2.44%</t>
+  </si>
+  <si>
+    <t>0.76%</t>
+  </si>
+  <si>
+    <t>0.03%</t>
+  </si>
+  <si>
+    <t>-0.58%</t>
+  </si>
+  <si>
+    <t>-0.98%</t>
+  </si>
+  <si>
+    <t>-1.15%</t>
+  </si>
+  <si>
+    <t>-1.09%</t>
+  </si>
+  <si>
+    <t>OnlineNewsPopularity:regression</t>
+  </si>
+  <si>
+    <t>12853.8276,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12896.0634,(0.33%:4)</t>
+  </si>
+  <si>
+    <t>12886.0999,(0.25%:3)</t>
+  </si>
+  <si>
+    <t>12864.2716,(0.08%:2)</t>
+  </si>
+  <si>
+    <t>13687.3082,(6.48%:7)</t>
+  </si>
+  <si>
+    <t>13075.1946,(1.72%:6)</t>
+  </si>
+  <si>
+    <t>12991.0002,(1.07%:5)</t>
+  </si>
+  <si>
+    <t>13742.7911,(6.92%:8)</t>
+  </si>
+  <si>
+    <t>12943.8797,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>12909.6262,(-0.26%:1)</t>
+  </si>
+  <si>
+    <t>12961.1196,(0.13%:3)</t>
+  </si>
+  <si>
+    <t>12961.4137,(0.14%:4)</t>
+  </si>
+  <si>
+    <t>13126.9051,(1.41%:7)</t>
+  </si>
+  <si>
+    <t>13111.2209,(1.29%:5)</t>
+  </si>
+  <si>
+    <t>13164.7434,(1.71%:8)</t>
+  </si>
+  <si>
+    <t>13115.1707,(1.32%:6)</t>
+  </si>
+  <si>
+    <t>12859.5735,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>12835.9217,(-0.18%:1)</t>
+  </si>
+  <si>
+    <t>12875.2675,(0.12%:4)</t>
+  </si>
+  <si>
+    <t>12862.4704,(0.02%:3)</t>
+  </si>
+  <si>
+    <t>12928.3153,(0.53%:5)</t>
+  </si>
+  <si>
+    <t>12944.0882,(0.66%:6)</t>
+  </si>
+  <si>
+    <t>12963.6893,(0.81%:7)</t>
+  </si>
+  <si>
+    <t>12970.1362,(0.86%:8)</t>
+  </si>
+  <si>
+    <t>12869.5081,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12870.8631,(0.01%:2)</t>
+  </si>
+  <si>
+    <t>12873.7375,(0.03%:3)</t>
+  </si>
+  <si>
+    <t>12876.7043,(0.06%:4)</t>
+  </si>
+  <si>
+    <t>12893.1858,(0.18%:5)</t>
+  </si>
+  <si>
+    <t>12898.7313,(0.23%:6)</t>
+  </si>
+  <si>
+    <t>12910.9383,(0.32%:8)</t>
+  </si>
+  <si>
+    <t>12900.0368,(0.24%:7)</t>
+  </si>
+  <si>
+    <t>12926.5858,(0.00%:4)</t>
+  </si>
+  <si>
+    <t>12889.7359,(-0.29%:1)</t>
+  </si>
+  <si>
+    <t>12919.9711,(-0.05%:3)</t>
+  </si>
+  <si>
+    <t>12910.6019,(-0.12%:2)</t>
+  </si>
+  <si>
+    <t>13083.8841,(1.22%:7)</t>
+  </si>
+  <si>
+    <t>13082.7214,(1.21%:6)</t>
+  </si>
+  <si>
+    <t>13237.7444,(2.41%:8)</t>
+  </si>
+  <si>
+    <t>13079.6826,(1.18%:5)</t>
+  </si>
+  <si>
+    <t>12907.5190,(0.00%:3)</t>
+  </si>
+  <si>
+    <t>12904.9610,(-0.02%:1)</t>
+  </si>
+  <si>
+    <t>12907.2436,(-0.00%:2)</t>
+  </si>
+  <si>
+    <t>12917.4907,(0.08%:5)</t>
+  </si>
+  <si>
+    <t>12920.8205,(0.10%:7)</t>
+  </si>
+  <si>
+    <t>12924.1899,(0.13%:8)</t>
+  </si>
+  <si>
+    <t>12916.0713,(0.07%:4)</t>
+  </si>
+  <si>
+    <t>12919.5306,(0.09%:6)</t>
+  </si>
+  <si>
+    <t>-0.07%</t>
+  </si>
+  <si>
+    <t>0.08%</t>
+  </si>
+  <si>
+    <t>0.04%</t>
+  </si>
+  <si>
+    <t>1.66%</t>
+  </si>
+  <si>
+    <t>0.87%</t>
+  </si>
+  <si>
+    <t>1.06%</t>
+  </si>
+  <si>
+    <t>1.77%</t>
+  </si>
+  <si>
+    <t>pol:regression</t>
+  </si>
+  <si>
+    <t>6.2986,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>5.7425,(-8.83%:2)</t>
+  </si>
+  <si>
+    <t>5.7431,(-8.82%:3)</t>
+  </si>
+  <si>
+    <t>5.7462,(-8.77%:4)</t>
+  </si>
+  <si>
+    <t>5.7647,(-8.48%:5)</t>
+  </si>
+  <si>
+    <t>5.6686,(-10.00%:1)</t>
+  </si>
+  <si>
+    <t>5.9338,(-5.79%:7)</t>
+  </si>
+  <si>
+    <t>5.8056,(-7.83%:6)</t>
+  </si>
+  <si>
+    <t>8.8105,(0.00%:6)</t>
+  </si>
+  <si>
+    <t>8.7951,(-0.17%:5)</t>
+  </si>
+  <si>
+    <t>8.8251,(0.17%:8)</t>
+  </si>
+  <si>
+    <t>8.8244,(0.16%:7)</t>
+  </si>
+  <si>
+    <t>8.7047,(-1.20%:3)</t>
+  </si>
+  <si>
+    <t>8.7045,(-1.20%:2)</t>
+  </si>
+  <si>
+    <t>8.7016,(-1.24%:1)</t>
+  </si>
+  <si>
+    <t>8.7101,(-1.14%:4)</t>
+  </si>
+  <si>
+    <t>2.8089,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>2.6397,(-6.03%:6)</t>
+  </si>
+  <si>
+    <t>2.6309,(-6.34%:5)</t>
+  </si>
+  <si>
+    <t>2.6409,(-5.98%:7)</t>
+  </si>
+  <si>
+    <t>2.6032,(-7.32%:4)</t>
+  </si>
+  <si>
+    <t>2.5952,(-7.61%:3)</t>
+  </si>
+  <si>
+    <t>2.5429,(-9.47%:1)</t>
+  </si>
+  <si>
+    <t>2.5528,(-9.12%:2)</t>
+  </si>
+  <si>
+    <t>9.9422,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>9.8660,(-0.77%:2)</t>
+  </si>
+  <si>
+    <t>9.8673,(-0.75%:4)</t>
+  </si>
+  <si>
+    <t>9.8672,(-0.75%:3)</t>
+  </si>
+  <si>
+    <t>9.8680,(-0.75%:5)</t>
+  </si>
+  <si>
+    <t>9.8659,(-0.77%:1)</t>
+  </si>
+  <si>
+    <t>9.8894,(-0.53%:7)</t>
+  </si>
+  <si>
+    <t>9.8718,(-0.71%:6)</t>
+  </si>
+  <si>
+    <t>10.5051,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>10.1640,(-3.25%:2)</t>
+  </si>
+  <si>
+    <t>10.1623,(-3.26%:1)</t>
+  </si>
+  <si>
+    <t>10.1803,(-3.09%:3)</t>
+  </si>
+  <si>
+    <t>10.2417,(-2.51%:6)</t>
+  </si>
+  <si>
+    <t>10.2462,(-2.46%:7)</t>
+  </si>
+  <si>
+    <t>10.2018,(-2.89%:5)</t>
+  </si>
+  <si>
+    <t>10.1857,(-3.04%:4)</t>
+  </si>
+  <si>
+    <t>16.7229,(0.00%:8)</t>
+  </si>
+  <si>
+    <t>10.9010,(-34.81%:4)</t>
+  </si>
+  <si>
+    <t>10.9134,(-34.74%:5)</t>
+  </si>
+  <si>
+    <t>10.9600,(-34.46%:7)</t>
+  </si>
+  <si>
+    <t>10.8145,(-35.33%:2)</t>
+  </si>
+  <si>
+    <t>10.9149,(-34.73%:6)</t>
+  </si>
+  <si>
+    <t>10.6337,(-36.41%:1)</t>
+  </si>
+  <si>
+    <t>10.8815,(-34.93%:3)</t>
+  </si>
+  <si>
+    <t>7.67</t>
+  </si>
+  <si>
+    <t>-8.98%</t>
+  </si>
+  <si>
+    <t>-8.96%</t>
+  </si>
+  <si>
+    <t>-8.82%</t>
+  </si>
+  <si>
+    <t>-9.26%</t>
+  </si>
+  <si>
+    <t>-9.46%</t>
+  </si>
+  <si>
+    <t>-9.39%</t>
+  </si>
+  <si>
+    <t>total_avg_rank</t>
+  </si>
+  <si>
+    <t>total_avg_percentage</t>
+  </si>
+  <si>
+    <t>-3.42%</t>
+  </si>
+  <si>
+    <t>-3.90%</t>
+  </si>
+  <si>
+    <t>-3.01%</t>
+  </si>
+  <si>
+    <t>-4.30%</t>
+  </si>
+  <si>
+    <t>-3.81%</t>
+  </si>
+  <si>
+    <t>-4.01%</t>
+  </si>
+  <si>
     <t>diamonds:regression</t>
-  </si>
-  <si>
-    <t>565.4896,(0.00%:3)</t>
-  </si>
-  <si>
-    <t>570.9327,(0.96%:7)</t>
-  </si>
-  <si>
-    <t>568.9367,(0.61%:6)</t>
-  </si>
-  <si>
-    <t>570.9978,(0.97%:8)</t>
-  </si>
-  <si>
-    <t>564.0141,(-0.26%:2)</t>
-  </si>
-  <si>
-    <t>563.9234,(-0.28%:1)</t>
-  </si>
-  <si>
-    <t>565.8932,(0.07%:4)</t>
-  </si>
-  <si>
-    <t>566.1615,(0.12%:5)</t>
-  </si>
-  <si>
-    <t>604.1518,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>587.3403,(-2.78%:4)</t>
-  </si>
-  <si>
-    <t>594.8473,(-1.54%:7)</t>
-  </si>
-  <si>
-    <t>587.1724,(-2.81%:3)</t>
-  </si>
-  <si>
-    <t>587.4461,(-2.77%:5)</t>
-  </si>
-  <si>
-    <t>587.7515,(-2.71%:6)</t>
-  </si>
-  <si>
-    <t>583.2296,(-3.46%:1)</t>
-  </si>
-  <si>
-    <t>586.9101,(-2.85%:2)</t>
-  </si>
-  <si>
-    <t>549.4801,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>541.8288,(-1.39%:4)</t>
-  </si>
-  <si>
-    <t>541.8899,(-1.38%:6)</t>
-  </si>
-  <si>
-    <t>541.8318,(-1.39%:5)</t>
-  </si>
-  <si>
-    <t>541.7565,(-1.41%:3)</t>
-  </si>
-  <si>
-    <t>542.0493,(-1.35%:7)</t>
-  </si>
-  <si>
-    <t>540.1867,(-1.69%:1)</t>
-  </si>
-  <si>
-    <t>541.6742,(-1.42%:2)</t>
-  </si>
-  <si>
-    <t>561.6000,(0.00%:7)</t>
-  </si>
-  <si>
-    <t>561.3616,(-0.04%:6)</t>
-  </si>
-  <si>
-    <t>561.7710,(0.03%:8)</t>
-  </si>
-  <si>
-    <t>561.0595,(-0.10%:5)</t>
-  </si>
-  <si>
-    <t>557.4862,(-0.73%:4)</t>
-  </si>
-  <si>
-    <t>557.2065,(-0.78%:3)</t>
-  </si>
-  <si>
-    <t>556.7921,(-0.86%:1)</t>
-  </si>
-  <si>
-    <t>557.0711,(-0.81%:2)</t>
-  </si>
-  <si>
-    <t>605.0028,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>615.3409,(1.71%:7)</t>
-  </si>
-  <si>
-    <t>617.0359,(1.99%:8)</t>
-  </si>
-  <si>
-    <t>604.2906,(-0.12%:5)</t>
-  </si>
-  <si>
-    <t>597.1973,(-1.29%:4)</t>
-  </si>
-  <si>
-    <t>594.3208,(-1.77%:3)</t>
-  </si>
-  <si>
-    <t>591.9946,(-2.15%:1)</t>
-  </si>
-  <si>
-    <t>593.9572,(-1.83%:2)</t>
-  </si>
-  <si>
-    <t>1523.5922,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>760.2473,(-50.10%:6)</t>
-  </si>
-  <si>
-    <t>758.0215,(-50.25%:5)</t>
-  </si>
-  <si>
-    <t>765.3071,(-49.77%:7)</t>
-  </si>
-  <si>
-    <t>736.5236,(-51.66%:2)</t>
-  </si>
-  <si>
-    <t>749.9588,(-50.78%:4)</t>
-  </si>
-  <si>
-    <t>721.8169,(-52.62%:1)</t>
-  </si>
-  <si>
-    <t>738.5312,(-51.53%:3)</t>
-  </si>
-  <si>
-    <t>6.67</t>
-  </si>
-  <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>-8.61%</t>
-  </si>
-  <si>
-    <t>-8.42%</t>
-  </si>
-  <si>
-    <t>-8.87%</t>
-  </si>
-  <si>
-    <t>-9.69%</t>
-  </si>
-  <si>
-    <t>-10.12%</t>
-  </si>
-  <si>
-    <t>-9.72%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>elevators:regression</t>
-  </si>
-  <si>
-    <t>0.0019,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>0.0019,(-0.66%:3)</t>
-  </si>
-  <si>
-    <t>0.0019,(-0.71%:2)</t>
-  </si>
-  <si>
-    <t>0.0019,(-0.76%:1)</t>
-  </si>
-  <si>
-    <t>0.0019,(0.59%:7)</t>
-  </si>
-  <si>
-    <t>0.0019,(0.10%:5)</t>
-  </si>
-  <si>
-    <t>0.0019,(0.26%:6)</t>
-  </si>
-  <si>
-    <t>0.0019,(0.77%:8)</t>
-  </si>
-  <si>
-    <t>0.0019,(0.00%:7)</t>
-  </si>
-  <si>
-    <t>0.0019,(-0.40%:3)</t>
-  </si>
-  <si>
-    <t>0.0019,(-0.42%:1)</t>
-  </si>
-  <si>
-    <t>0.0019,(-0.41%:2)</t>
-  </si>
-  <si>
-    <t>0.0019,(0.01%:8)</t>
-  </si>
-  <si>
-    <t>0.0019,(-0.12%:4)</t>
-  </si>
-  <si>
-    <t>0.0019,(-0.03%:6)</t>
-  </si>
-  <si>
-    <t>0.0019,(-0.12%:5)</t>
-  </si>
-  <si>
-    <t>0.0019,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>0.0019,(-1.09%:7)</t>
-  </si>
-  <si>
-    <t>0.0019,(-1.11%:6)</t>
-  </si>
-  <si>
-    <t>0.0019,(-1.23%:5)</t>
-  </si>
-  <si>
-    <t>0.0019,(-1.47%:4)</t>
-  </si>
-  <si>
-    <t>0.0019,(-1.53%:3)</t>
-  </si>
-  <si>
-    <t>0.0019,(-1.72%:2)</t>
-  </si>
-  <si>
-    <t>0.0019,(-1.74%:1)</t>
-  </si>
-  <si>
-    <t>0.0020,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>0.0020,(-0.59%:6)</t>
-  </si>
-  <si>
-    <t>0.0020,(-0.64%:4)</t>
-  </si>
-  <si>
-    <t>0.0020,(-0.62%:5)</t>
-  </si>
-  <si>
-    <t>0.0020,(-0.51%:7)</t>
-  </si>
-  <si>
-    <t>0.0020,(-0.65%:3)</t>
-  </si>
-  <si>
-    <t>0.0020,(-0.85%:1)</t>
-  </si>
-  <si>
-    <t>0.0020,(-0.74%:2)</t>
-  </si>
-  <si>
-    <t>0.0021,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>0.0020,(-1.52%:6)</t>
-  </si>
-  <si>
-    <t>0.0020,(-1.46%:7)</t>
-  </si>
-  <si>
-    <t>0.0020,(-1.93%:4)</t>
-  </si>
-  <si>
-    <t>0.0020,(-1.96%:3)</t>
-  </si>
-  <si>
-    <t>0.0020,(-2.12%:1)</t>
-  </si>
-  <si>
-    <t>0.0020,(-1.84%:5)</t>
-  </si>
-  <si>
-    <t>0.0020,(-2.06%:2)</t>
-  </si>
-  <si>
-    <t>0.0030,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>0.0026,(-11.31%:3)</t>
-  </si>
-  <si>
-    <t>0.0026,(-11.28%:4)</t>
-  </si>
-  <si>
-    <t>0.0027,(-10.74%:5)</t>
-  </si>
-  <si>
-    <t>0.0026,(-11.49%:2)</t>
-  </si>
-  <si>
-    <t>0.0027,(-9.54%:7)</t>
-  </si>
-  <si>
-    <t>0.0025,(-15.69%:1)</t>
-  </si>
-  <si>
-    <t>0.0027,(-10.62%:6)</t>
-  </si>
-  <si>
-    <t>5.17</t>
-  </si>
-  <si>
-    <t>-2.62%</t>
-  </si>
-  <si>
-    <t>-2.47%</t>
-  </si>
-  <si>
-    <t>-2.31%</t>
-  </si>
-  <si>
-    <t>-3.31%</t>
-  </si>
-  <si>
-    <t>-2.42%</t>
-  </si>
-  <si>
-    <t>qsar_aquatic_toxicity:regression</t>
-  </si>
-  <si>
-    <t>1.2276,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>1.2380,(0.85%:3)</t>
-  </si>
-  <si>
-    <t>1.2526,(2.03%:4)</t>
-  </si>
-  <si>
-    <t>1.2380,(0.84%:2)</t>
-  </si>
-  <si>
-    <t>1.4340,(16.81%:8)</t>
-  </si>
-  <si>
-    <t>1.2931,(5.34%:6)</t>
-  </si>
-  <si>
-    <t>1.4311,(16.58%:7)</t>
-  </si>
-  <si>
-    <t>1.2931,(5.33%:5)</t>
-  </si>
-  <si>
-    <t>1.2339,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>1.1902,(-3.54%:1)</t>
-  </si>
-  <si>
-    <t>1.1988,(-2.84%:5)</t>
-  </si>
-  <si>
-    <t>1.1904,(-3.52%:2)</t>
-  </si>
-  <si>
-    <t>1.2876,(4.35%:7)</t>
-  </si>
-  <si>
-    <t>1.1912,(-3.46%:3)</t>
-  </si>
-  <si>
-    <t>1.2884,(4.42%:8)</t>
-  </si>
-  <si>
-    <t>1.1913,(-3.45%:4)</t>
-  </si>
-  <si>
-    <t>1.2759,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>1.3187,(3.35%:6)</t>
-  </si>
-  <si>
-    <t>1.3035,(2.16%:5)</t>
-  </si>
-  <si>
-    <t>1.3002,(1.90%:3)</t>
-  </si>
-  <si>
-    <t>1.3304,(4.27%:7)</t>
-  </si>
-  <si>
-    <t>1.2989,(1.80%:2)</t>
-  </si>
-  <si>
-    <t>1.3394,(4.97%:8)</t>
-  </si>
-  <si>
-    <t>1.3031,(2.13%:4)</t>
-  </si>
-  <si>
-    <t>1.1722,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>1.2115,(3.35%:8)</t>
-  </si>
-  <si>
-    <t>1.2001,(2.38%:2)</t>
-  </si>
-  <si>
-    <t>1.2094,(3.18%:7)</t>
-  </si>
-  <si>
-    <t>1.2001,(2.38%:3)</t>
-  </si>
-  <si>
-    <t>1.2053,(2.82%:6)</t>
-  </si>
-  <si>
-    <t>1.2009,(2.45%:4)</t>
-  </si>
-  <si>
-    <t>1.2052,(2.82%:5)</t>
-  </si>
-  <si>
-    <t>1.2159,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>1.2522,(2.99%:4)</t>
-  </si>
-  <si>
-    <t>1.2481,(2.65%:2)</t>
-  </si>
-  <si>
-    <t>1.2523,(2.99%:5)</t>
-  </si>
-  <si>
-    <t>1.2649,(4.03%:8)</t>
-  </si>
-  <si>
-    <t>1.2521,(2.98%:3)</t>
-  </si>
-  <si>
-    <t>1.2628,(3.86%:7)</t>
-  </si>
-  <si>
-    <t>1.2548,(3.20%:6)</t>
-  </si>
-  <si>
-    <t>1.3518,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>1.3127,(-2.89%:1)</t>
-  </si>
-  <si>
-    <t>1.3230,(-2.13%:5)</t>
-  </si>
-  <si>
-    <t>1.3128,(-2.89%:2)</t>
-  </si>
-  <si>
-    <t>1.3489,(-0.21%:6)</t>
-  </si>
-  <si>
-    <t>1.3128,(-2.88%:4)</t>
-  </si>
-  <si>
-    <t>1.3503,(-0.11%:7)</t>
-  </si>
-  <si>
-    <t>1.3128,(-2.89%:3)</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>0.68%</t>
-  </si>
-  <si>
-    <t>0.71%</t>
-  </si>
-  <si>
-    <t>0.42%</t>
-  </si>
-  <si>
-    <t>5.27%</t>
-  </si>
-  <si>
-    <t>1.10%</t>
-  </si>
-  <si>
-    <t>5.36%</t>
-  </si>
-  <si>
-    <t>1.19%</t>
-  </si>
-  <si>
-    <t>qsar_fish_toxicity:regression</t>
-  </si>
-  <si>
-    <t>0.8558,(0.00%:7)</t>
-  </si>
-  <si>
-    <t>0.8364,(-2.27%:3)</t>
-  </si>
-  <si>
-    <t>0.8725,(1.95%:8)</t>
-  </si>
-  <si>
-    <t>0.8364,(-2.27%:4)</t>
-  </si>
-  <si>
-    <t>0.8222,(-3.93%:2)</t>
-  </si>
-  <si>
-    <t>0.8399,(-1.86%:5)</t>
-  </si>
-  <si>
-    <t>0.8147,(-4.80%:1)</t>
-  </si>
-  <si>
-    <t>0.8473,(-1.00%:6)</t>
-  </si>
-  <si>
-    <t>1.1790,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>0.9030,(-23.41%:4)</t>
-  </si>
-  <si>
-    <t>0.9038,(-23.34%:5)</t>
-  </si>
-  <si>
-    <t>0.9001,(-23.66%:1)</t>
-  </si>
-  <si>
-    <t>0.9319,(-20.96%:6)</t>
-  </si>
-  <si>
-    <t>0.9016,(-23.53%:2)</t>
-  </si>
-  <si>
-    <t>0.9366,(-20.56%:7)</t>
-  </si>
-  <si>
-    <t>0.9020,(-23.49%:3)</t>
-  </si>
-  <si>
-    <t>0.8239,(0.00%:2)</t>
-  </si>
-  <si>
-    <t>0.8163,(-0.92%:1)</t>
-  </si>
-  <si>
-    <t>0.8495,(3.11%:6)</t>
-  </si>
-  <si>
-    <t>0.8265,(0.32%:3)</t>
-  </si>
-  <si>
-    <t>0.8473,(2.85%:4)</t>
-  </si>
-  <si>
-    <t>0.8506,(3.25%:8)</t>
-  </si>
-  <si>
-    <t>0.8490,(3.04%:5)</t>
-  </si>
-  <si>
-    <t>0.8504,(3.22%:7)</t>
-  </si>
-  <si>
-    <t>0.8774,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>0.8594,(-2.05%:3)</t>
-  </si>
-  <si>
-    <t>0.8587,(-2.13%:2)</t>
-  </si>
-  <si>
-    <t>0.8580,(-2.21%:1)</t>
-  </si>
-  <si>
-    <t>0.8664,(-1.26%:6)</t>
-  </si>
-  <si>
-    <t>0.8639,(-1.54%:4)</t>
-  </si>
-  <si>
-    <t>0.8677,(-1.11%:7)</t>
-  </si>
-  <si>
-    <t>0.8650,(-1.41%:5)</t>
-  </si>
-  <si>
-    <t>0.8808,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>0.8516,(-3.31%:1)</t>
-  </si>
-  <si>
-    <t>0.8547,(-2.96%:2)</t>
-  </si>
-  <si>
-    <t>0.8595,(-2.42%:5)</t>
-  </si>
-  <si>
-    <t>0.9246,(4.98%:7)</t>
-  </si>
-  <si>
-    <t>0.8567,(-2.74%:4)</t>
-  </si>
-  <si>
-    <t>0.9365,(6.33%:8)</t>
-  </si>
-  <si>
-    <t>0.8565,(-2.76%:3)</t>
-  </si>
-  <si>
-    <t>0.9674,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>0.8697,(-10.09%:6)</t>
-  </si>
-  <si>
-    <t>0.8861,(-8.40%:7)</t>
-  </si>
-  <si>
-    <t>0.8695,(-10.12%:5)</t>
-  </si>
-  <si>
-    <t>0.8672,(-10.36%:1)</t>
-  </si>
-  <si>
-    <t>0.8694,(-10.13%:4)</t>
-  </si>
-  <si>
-    <t>0.8691,(-10.16%:2)</t>
-  </si>
-  <si>
-    <t>0.8692,(-10.15%:3)</t>
-  </si>
-  <si>
-    <t>-7.01%</t>
-  </si>
-  <si>
-    <t>-5.30%</t>
-  </si>
-  <si>
-    <t>-6.72%</t>
-  </si>
-  <si>
-    <t>-6.09%</t>
-  </si>
-  <si>
-    <t>-4.54%</t>
-  </si>
-  <si>
-    <t>-5.93%</t>
-  </si>
-  <si>
-    <t>yacht_hydrodynamics:regression</t>
-  </si>
-  <si>
-    <t>3.7701,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>2.6987,(-28.42%:7)</t>
-  </si>
-  <si>
-    <t>2.1894,(-41.93%:5)</t>
-  </si>
-  <si>
-    <t>2.6983,(-28.43%:6)</t>
-  </si>
-  <si>
-    <t>1.9153,(-49.20%:2)</t>
-  </si>
-  <si>
-    <t>1.9528,(-48.20%:3)</t>
-  </si>
-  <si>
-    <t>2.0595,(-45.37%:4)</t>
-  </si>
-  <si>
-    <t>1.9071,(-49.42%:1)</t>
-  </si>
-  <si>
-    <t>4.4180,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>2.8817,(-34.77%:5)</t>
-  </si>
-  <si>
-    <t>2.3533,(-46.73%:1)</t>
-  </si>
-  <si>
-    <t>2.8805,(-34.80%:4)</t>
-  </si>
-  <si>
-    <t>2.4824,(-43.81%:3)</t>
-  </si>
-  <si>
-    <t>2.8951,(-34.47%:7)</t>
-  </si>
-  <si>
-    <t>2.3709,(-46.34%:2)</t>
-  </si>
-  <si>
-    <t>2.8920,(-34.54%:6)</t>
-  </si>
-  <si>
-    <t>1.3788,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>1.3109,(-4.93%:7)</t>
-  </si>
-  <si>
-    <t>1.2205,(-11.49%:1)</t>
-  </si>
-  <si>
-    <t>1.2699,(-7.90%:6)</t>
-  </si>
-  <si>
-    <t>1.2287,(-10.89%:2)</t>
-  </si>
-  <si>
-    <t>1.2344,(-10.47%:3)</t>
-  </si>
-  <si>
-    <t>1.2559,(-8.92%:5)</t>
-  </si>
-  <si>
-    <t>1.2417,(-9.94%:4)</t>
-  </si>
-  <si>
-    <t>4.6760,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>3.2586,(-30.31%:7)</t>
-  </si>
-  <si>
-    <t>2.9430,(-37.06%:5)</t>
-  </si>
-  <si>
-    <t>3.1289,(-33.09%:6)</t>
-  </si>
-  <si>
-    <t>2.3930,(-48.82%:1)</t>
-  </si>
-  <si>
-    <t>2.7283,(-41.65%:3)</t>
-  </si>
-  <si>
-    <t>2.4006,(-48.66%:2)</t>
-  </si>
-  <si>
-    <t>2.7336,(-41.54%:4)</t>
-  </si>
-  <si>
-    <t>4.4040,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>3.1816,(-27.76%:6)</t>
-  </si>
-  <si>
-    <t>2.4209,(-45.03%:5)</t>
-  </si>
-  <si>
-    <t>3.1841,(-27.70%:7)</t>
-  </si>
-  <si>
-    <t>1.9498,(-55.73%:2)</t>
-  </si>
-  <si>
-    <t>2.2375,(-49.19%:4)</t>
-  </si>
-  <si>
-    <t>1.9068,(-56.70%:1)</t>
-  </si>
-  <si>
-    <t>2.2366,(-49.21%:3)</t>
-  </si>
-  <si>
-    <t>11.7434,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>7.2388,(-38.36%:7)</t>
-  </si>
-  <si>
-    <t>7.2334,(-38.40%:5)</t>
-  </si>
-  <si>
-    <t>7.2377,(-38.37%:6)</t>
-  </si>
-  <si>
-    <t>6.5735,(-44.02%:2)</t>
-  </si>
-  <si>
-    <t>7.2315,(-38.42%:4)</t>
-  </si>
-  <si>
-    <t>6.5693,(-44.06%:1)</t>
-  </si>
-  <si>
-    <t>7.2307,(-38.43%:3)</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>-27.42%</t>
-  </si>
-  <si>
-    <t>-36.77%</t>
-  </si>
-  <si>
-    <t>-28.38%</t>
-  </si>
-  <si>
-    <t>-42.08%</t>
-  </si>
-  <si>
-    <t>-37.07%</t>
-  </si>
-  <si>
-    <t>-41.68%</t>
-  </si>
-  <si>
-    <t>-37.18%</t>
-  </si>
-  <si>
-    <t>superconductivty_data:regression</t>
-  </si>
-  <si>
-    <t>11.0102,(0.00%:5)</t>
-  </si>
-  <si>
-    <t>10.9126,(-0.89%:1)</t>
-  </si>
-  <si>
-    <t>11.0126,(0.02%:6)</t>
-  </si>
-  <si>
-    <t>11.0009,(-0.08%:4)</t>
-  </si>
-  <si>
-    <t>10.9791,(-0.28%:3)</t>
-  </si>
-  <si>
-    <t>11.1063,(0.87%:7)</t>
-  </si>
-  <si>
-    <t>10.9216,(-0.80%:2)</t>
-  </si>
-  <si>
-    <t>11.1252,(1.04%:8)</t>
-  </si>
-  <si>
-    <t>11.0657,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>10.9625,(-0.93%:6)</t>
-  </si>
-  <si>
-    <t>10.9672,(-0.89%:7)</t>
-  </si>
-  <si>
-    <t>10.9601,(-0.95%:5)</t>
-  </si>
-  <si>
-    <t>10.9412,(-1.12%:4)</t>
-  </si>
-  <si>
-    <t>10.9215,(-1.30%:3)</t>
-  </si>
-  <si>
-    <t>10.8377,(-2.06%:1)</t>
-  </si>
-  <si>
-    <t>10.8886,(-1.60%:2)</t>
-  </si>
-  <si>
-    <t>10.9848,(0.00%:5)</t>
-  </si>
-  <si>
-    <t>10.9979,(0.12%:6)</t>
-  </si>
-  <si>
-    <t>10.9995,(0.13%:8)</t>
-  </si>
-  <si>
-    <t>10.9992,(0.13%:7)</t>
-  </si>
-  <si>
-    <t>10.9453,(-0.36%:4)</t>
-  </si>
-  <si>
-    <t>10.9445,(-0.37%:3)</t>
-  </si>
-  <si>
-    <t>10.9108,(-0.67%:1)</t>
-  </si>
-  <si>
-    <t>10.9361,(-0.44%:2)</t>
-  </si>
-  <si>
-    <t>10.2152,(0.00%:7)</t>
-  </si>
-  <si>
-    <t>10.2128,(-0.02%:5)</t>
-  </si>
-  <si>
-    <t>10.2038,(-0.11%:3)</t>
-  </si>
-  <si>
-    <t>10.2188,(0.04%:8)</t>
-  </si>
-  <si>
-    <t>10.2137,(-0.01%:6)</t>
-  </si>
-  <si>
-    <t>10.2102,(-0.05%:4)</t>
-  </si>
-  <si>
-    <t>10.1607,(-0.53%:1)</t>
-  </si>
-  <si>
-    <t>10.1733,(-0.41%:2)</t>
-  </si>
-  <si>
-    <t>11.1937,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>10.9375,(-2.29%:5)</t>
-  </si>
-  <si>
-    <t>10.9396,(-2.27%:6)</t>
-  </si>
-  <si>
-    <t>10.9402,(-2.26%:7)</t>
-  </si>
-  <si>
-    <t>10.9045,(-2.58%:3)</t>
-  </si>
-  <si>
-    <t>10.9077,(-2.56%:4)</t>
-  </si>
-  <si>
-    <t>10.8754,(-2.84%:1)</t>
-  </si>
-  <si>
-    <t>10.8890,(-2.72%:2)</t>
-  </si>
-  <si>
-    <t>26.4685,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>16.8567,(-36.31%:1)</t>
-  </si>
-  <si>
-    <t>16.8938,(-36.17%:5)</t>
-  </si>
-  <si>
-    <t>16.8588,(-36.31%:2)</t>
-  </si>
-  <si>
-    <t>17.6488,(-33.32%:7)</t>
-  </si>
-  <si>
-    <t>16.8905,(-36.19%:4)</t>
-  </si>
-  <si>
-    <t>17.1615,(-35.16%:6)</t>
-  </si>
-  <si>
-    <t>16.8702,(-36.26%:3)</t>
-  </si>
-  <si>
-    <t>-6.55%</t>
-  </si>
-  <si>
-    <t>-6.57%</t>
-  </si>
-  <si>
-    <t>-6.28%</t>
-  </si>
-  <si>
-    <t>-6.60%</t>
-  </si>
-  <si>
-    <t>-6.73%</t>
-  </si>
-  <si>
-    <t>physicochemical_properties_of_protein_tertiary_structure:regression</t>
-  </si>
-  <si>
-    <t>3.8212,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>3.6984,(-3.22%:4)</t>
-  </si>
-  <si>
-    <t>3.6989,(-3.20%:6)</t>
-  </si>
-  <si>
-    <t>3.6989,(-3.20%:5)</t>
-  </si>
-  <si>
-    <t>3.7034,(-3.08%:7)</t>
-  </si>
-  <si>
-    <t>3.6921,(-3.38%:3)</t>
-  </si>
-  <si>
-    <t>3.6739,(-3.86%:1)</t>
-  </si>
-  <si>
-    <t>3.6856,(-3.55%:2)</t>
-  </si>
-  <si>
-    <t>3.6868,(0.00%:7)</t>
-  </si>
-  <si>
-    <t>3.6903,(0.09%:8)</t>
-  </si>
-  <si>
-    <t>3.6866,(-0.01%:5)</t>
-  </si>
-  <si>
-    <t>3.6867,(-0.00%:6)</t>
-  </si>
-  <si>
-    <t>3.6787,(-0.22%:2)</t>
-  </si>
-  <si>
-    <t>3.6802,(-0.18%:3)</t>
-  </si>
-  <si>
-    <t>3.6749,(-0.32%:1)</t>
-  </si>
-  <si>
-    <t>3.6813,(-0.15%:4)</t>
-  </si>
-  <si>
-    <t>3.6373,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>3.6173,(-0.55%:7)</t>
-  </si>
-  <si>
-    <t>3.6171,(-0.55%:5)</t>
-  </si>
-  <si>
-    <t>3.6172,(-0.55%:6)</t>
-  </si>
-  <si>
-    <t>3.6139,(-0.65%:4)</t>
-  </si>
-  <si>
-    <t>3.6101,(-0.75%:2)</t>
-  </si>
-  <si>
-    <t>3.6107,(-0.73%:3)</t>
-  </si>
-  <si>
-    <t>3.6093,(-0.77%:1)</t>
-  </si>
-  <si>
-    <t>3.4782,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>3.4727,(-0.16%:2)</t>
-  </si>
-  <si>
-    <t>3.4712,(-0.20%:1)</t>
-  </si>
-  <si>
-    <t>3.4769,(-0.04%:3)</t>
-  </si>
-  <si>
-    <t>3.4856,(0.21%:6)</t>
-  </si>
-  <si>
-    <t>3.4905,(0.35%:8)</t>
-  </si>
-  <si>
-    <t>3.4832,(0.14%:5)</t>
-  </si>
-  <si>
-    <t>3.4887,(0.30%:7)</t>
-  </si>
-  <si>
-    <t>3.5745,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>3.5598,(-0.41%:7)</t>
-  </si>
-  <si>
-    <t>3.5420,(-0.91%:6)</t>
-  </si>
-  <si>
-    <t>3.5418,(-0.91%:5)</t>
-  </si>
-  <si>
-    <t>3.5192,(-1.55%:2)</t>
-  </si>
-  <si>
-    <t>3.5219,(-1.47%:3)</t>
-  </si>
-  <si>
-    <t>3.5126,(-1.73%:1)</t>
-  </si>
-  <si>
-    <t>3.5220,(-1.47%:4)</t>
-  </si>
-  <si>
-    <t>4.4640,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>4.0780,(-8.65%:5)</t>
-  </si>
-  <si>
-    <t>4.0756,(-8.70%:3)</t>
-  </si>
-  <si>
-    <t>4.0738,(-8.74%:2)</t>
-  </si>
-  <si>
-    <t>4.0857,(-8.47%:7)</t>
-  </si>
-  <si>
-    <t>4.0814,(-8.57%:6)</t>
-  </si>
-  <si>
-    <t>4.0634,(-8.97%:1)</t>
-  </si>
-  <si>
-    <t>4.0779,(-8.65%:4)</t>
-  </si>
-  <si>
-    <t>-2.15%</t>
-  </si>
-  <si>
-    <t>-2.26%</t>
-  </si>
-  <si>
-    <t>-2.24%</t>
-  </si>
-  <si>
-    <t>-2.29%</t>
-  </si>
-  <si>
-    <t>-2.33%</t>
-  </si>
-  <si>
-    <t>-2.58%</t>
-  </si>
-  <si>
-    <t>-2.38%</t>
-  </si>
-  <si>
-    <t>Brazilian_houses:regression</t>
-  </si>
-  <si>
-    <t>1039.7982,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>932.2776,(-10.34%:7)</t>
-  </si>
-  <si>
-    <t>895.8303,(-13.85%:4)</t>
-  </si>
-  <si>
-    <t>903.7180,(-13.09%:5)</t>
-  </si>
-  <si>
-    <t>820.0996,(-21.13%:2)</t>
-  </si>
-  <si>
-    <t>856.8474,(-17.59%:3)</t>
-  </si>
-  <si>
-    <t>803.8760,(-22.69%:1)</t>
-  </si>
-  <si>
-    <t>930.5469,(-10.51%:6)</t>
-  </si>
-  <si>
-    <t>1108.3467,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>1148.6916,(3.64%:2)</t>
-  </si>
-  <si>
-    <t>1432.1433,(29.21%:7)</t>
-  </si>
-  <si>
-    <t>1529.4777,(38.00%:8)</t>
-  </si>
-  <si>
-    <t>1388.6386,(25.29%:4)</t>
-  </si>
-  <si>
-    <t>1418.4369,(27.98%:6)</t>
-  </si>
-  <si>
-    <t>1366.8690,(23.33%:3)</t>
-  </si>
-  <si>
-    <t>1391.7024,(25.57%:5)</t>
-  </si>
-  <si>
-    <t>1235.8664,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>2607.1652,(110.96%:2)</t>
-  </si>
-  <si>
-    <t>2684.7697,(117.24%:3)</t>
-  </si>
-  <si>
-    <t>3017.4708,(144.16%:8)</t>
-  </si>
-  <si>
-    <t>2867.7005,(132.04%:5)</t>
-  </si>
-  <si>
-    <t>2943.8230,(138.20%:7)</t>
-  </si>
-  <si>
-    <t>2872.8573,(132.46%:6)</t>
-  </si>
-  <si>
-    <t>2778.4112,(124.81%:4)</t>
-  </si>
-  <si>
-    <t>1056.9447,(0.00%:2)</t>
-  </si>
-  <si>
-    <t>1044.4864,(-1.18%:1)</t>
-  </si>
-  <si>
-    <t>1383.0853,(30.86%:3)</t>
-  </si>
-  <si>
-    <t>1389.3255,(31.45%:4)</t>
-  </si>
-  <si>
-    <t>1481.9686,(40.21%:5)</t>
-  </si>
-  <si>
-    <t>1491.0466,(41.07%:6)</t>
-  </si>
-  <si>
-    <t>1649.2268,(56.04%:8)</t>
-  </si>
-  <si>
-    <t>1502.7598,(42.18%:7)</t>
-  </si>
-  <si>
-    <t>1699.6276,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>1075.8727,(-36.70%:2)</t>
-  </si>
-  <si>
-    <t>1239.9727,(-27.04%:6)</t>
-  </si>
-  <si>
-    <t>1246.2788,(-26.67%:7)</t>
-  </si>
-  <si>
-    <t>1043.5309,(-38.60%:1)</t>
-  </si>
-  <si>
-    <t>1107.7411,(-34.82%:3)</t>
-  </si>
-  <si>
-    <t>1140.9658,(-32.87%:4)</t>
-  </si>
-  <si>
-    <t>1203.9932,(-29.16%:5)</t>
-  </si>
-  <si>
-    <t>1766.6207,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>1901.1896,(7.62%:6)</t>
-  </si>
-  <si>
-    <t>1593.4921,(-9.80%:2)</t>
-  </si>
-  <si>
-    <t>1585.9279,(-10.23%:1)</t>
-  </si>
-  <si>
-    <t>2027.3878,(14.76%:7)</t>
-  </si>
-  <si>
-    <t>2107.9887,(19.32%:8)</t>
-  </si>
-  <si>
-    <t>1643.5367,(-6.97%:3)</t>
-  </si>
-  <si>
-    <t>1794.4061,(1.57%:5)</t>
-  </si>
-  <si>
-    <t>12.33%</t>
-  </si>
-  <si>
-    <t>21.10%</t>
-  </si>
-  <si>
-    <t>27.27%</t>
-  </si>
-  <si>
-    <t>25.43%</t>
-  </si>
-  <si>
-    <t>29.03%</t>
-  </si>
-  <si>
-    <t>24.88%</t>
-  </si>
-  <si>
-    <t>25.74%</t>
-  </si>
-  <si>
-    <t>colleges:regression</t>
-  </si>
-  <si>
-    <t>0.1505,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>0.1525,(1.30%:2)</t>
-  </si>
-  <si>
-    <t>0.1558,(3.54%:5)</t>
-  </si>
-  <si>
-    <t>0.1525,(1.30%:3)</t>
-  </si>
-  <si>
-    <t>0.1575,(4.65%:8)</t>
-  </si>
-  <si>
-    <t>0.1572,(4.44%:6)</t>
-  </si>
-  <si>
-    <t>0.1573,(4.51%:7)</t>
-  </si>
-  <si>
-    <t>0.1531,(1.76%:4)</t>
-  </si>
-  <si>
-    <t>0.1544,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>0.1551,(0.46%:2)</t>
-  </si>
-  <si>
-    <t>0.1562,(1.16%:5)</t>
-  </si>
-  <si>
-    <t>0.1565,(1.33%:7)</t>
-  </si>
-  <si>
-    <t>0.1560,(1.03%:3)</t>
-  </si>
-  <si>
-    <t>0.1564,(1.28%:6)</t>
-  </si>
-  <si>
-    <t>0.1565,(1.33%:8)</t>
-  </si>
-  <si>
-    <t>0.1562,(1.15%:4)</t>
-  </si>
-  <si>
-    <t>0.1509,(0.00%:7)</t>
-  </si>
-  <si>
-    <t>0.1509,(0.01%:8)</t>
-  </si>
-  <si>
-    <t>0.1491,(-1.17%:6)</t>
-  </si>
-  <si>
-    <t>0.1489,(-1.31%:5)</t>
-  </si>
-  <si>
-    <t>0.1486,(-1.49%:2)</t>
-  </si>
-  <si>
-    <t>0.1487,(-1.48%:4)</t>
-  </si>
-  <si>
-    <t>0.1486,(-1.53%:1)</t>
-  </si>
-  <si>
-    <t>0.1487,(-1.49%:3)</t>
-  </si>
-  <si>
-    <t>0.1517,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>0.1517,(0.00%:2)</t>
-  </si>
-  <si>
-    <t>0.1520,(0.18%:8)</t>
-  </si>
-  <si>
-    <t>0.1518,(0.02%:5)</t>
-  </si>
-  <si>
-    <t>0.1518,(0.03%:7)</t>
-  </si>
-  <si>
-    <t>0.1518,(0.03%:6)</t>
-  </si>
-  <si>
-    <t>0.1518,(0.01%:3)</t>
-  </si>
-  <si>
-    <t>0.1518,(0.02%:4)</t>
-  </si>
-  <si>
-    <t>0.1487,(0.00%:7)</t>
-  </si>
-  <si>
-    <t>0.1487,(0.05%:8)</t>
-  </si>
-  <si>
-    <t>0.1483,(-0.21%:5)</t>
-  </si>
-  <si>
-    <t>0.1484,(-0.20%:6)</t>
-  </si>
-  <si>
-    <t>0.1474,(-0.88%:2)</t>
-  </si>
-  <si>
-    <t>0.1476,(-0.72%:4)</t>
-  </si>
-  <si>
-    <t>0.1473,(-0.92%:1)</t>
-  </si>
-  <si>
-    <t>0.1474,(-0.85%:3)</t>
-  </si>
-  <si>
-    <t>0.1829,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>0.1796,(-1.77%:7)</t>
-  </si>
-  <si>
-    <t>0.1726,(-5.63%:5)</t>
-  </si>
-  <si>
-    <t>0.1796,(-1.77%:6)</t>
-  </si>
-  <si>
-    <t>0.1695,(-7.32%:2)</t>
-  </si>
-  <si>
-    <t>0.1709,(-6.53%:4)</t>
-  </si>
-  <si>
-    <t>0.1689,(-7.66%:1)</t>
-  </si>
-  <si>
-    <t>0.1705,(-6.77%:3)</t>
-  </si>
-  <si>
-    <t>4.83</t>
-  </si>
-  <si>
-    <t>0.01%</t>
-  </si>
-  <si>
-    <t>-0.36%</t>
-  </si>
-  <si>
-    <t>-0.11%</t>
-  </si>
-  <si>
-    <t>-0.66%</t>
-  </si>
-  <si>
-    <t>-0.50%</t>
-  </si>
-  <si>
-    <t>-0.71%</t>
-  </si>
-  <si>
-    <t>-1.03%</t>
-  </si>
-  <si>
-    <t>House_16H:regression</t>
-  </si>
-  <si>
-    <t>31039.7870,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>31414.9182,(1.21%:2)</t>
-  </si>
-  <si>
-    <t>31439.8839,(1.29%:4)</t>
-  </si>
-  <si>
-    <t>31431.7548,(1.26%:3)</t>
-  </si>
-  <si>
-    <t>32724.4555,(5.43%:6)</t>
-  </si>
-  <si>
-    <t>32700.0908,(5.35%:5)</t>
-  </si>
-  <si>
-    <t>33285.2068,(7.23%:8)</t>
-  </si>
-  <si>
-    <t>32745.5761,(5.50%:7)</t>
-  </si>
-  <si>
-    <t>31126.6423,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>31395.5274,(0.86%:5)</t>
-  </si>
-  <si>
-    <t>31418.6438,(0.94%:6)</t>
-  </si>
-  <si>
-    <t>31425.7241,(0.96%:7)</t>
-  </si>
-  <si>
-    <t>31241.3736,(0.37%:2)</t>
-  </si>
-  <si>
-    <t>31306.5881,(0.58%:3)</t>
-  </si>
-  <si>
-    <t>31605.4545,(1.54%:8)</t>
-  </si>
-  <si>
-    <t>31315.6458,(0.61%:4)</t>
-  </si>
-  <si>
-    <t>30012.1929,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>30044.4474,(0.11%:2)</t>
-  </si>
-  <si>
-    <t>30236.0053,(0.75%:3)</t>
-  </si>
-  <si>
-    <t>30318.1080,(1.02%:7)</t>
-  </si>
-  <si>
-    <t>30263.4915,(0.84%:5)</t>
-  </si>
-  <si>
-    <t>30287.9058,(0.92%:6)</t>
-  </si>
-  <si>
-    <t>30239.0869,(0.76%:4)</t>
-  </si>
-  <si>
-    <t>30320.7548,(1.03%:8)</t>
-  </si>
-  <si>
-    <t>31529.0872,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>31337.2709,(-0.61%:5)</t>
-  </si>
-  <si>
-    <t>31340.4078,(-0.60%:6)</t>
-  </si>
-  <si>
-    <t>31340.4592,(-0.60%:7)</t>
-  </si>
-  <si>
-    <t>31324.2205,(-0.65%:1)</t>
-  </si>
-  <si>
-    <t>31332.5993,(-0.62%:2)</t>
-  </si>
-  <si>
-    <t>31336.7987,(-0.61%:4)</t>
-  </si>
-  <si>
-    <t>31333.8238,(-0.62%:3)</t>
-  </si>
-  <si>
-    <t>32094.2225,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>32077.4640,(-0.05%:5)</t>
-  </si>
-  <si>
-    <t>32105.9789,(0.04%:7)</t>
-  </si>
-  <si>
-    <t>32114.1577,(0.06%:8)</t>
-  </si>
-  <si>
-    <t>31880.8600,(-0.66%:1)</t>
-  </si>
-  <si>
-    <t>31908.7202,(-0.58%:2)</t>
-  </si>
-  <si>
-    <t>31954.5573,(-0.44%:3)</t>
-  </si>
-  <si>
-    <t>31977.0097,(-0.37%:4)</t>
-  </si>
-  <si>
-    <t>42559.8496,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>39979.4859,(-6.06%:5)</t>
-  </si>
-  <si>
-    <t>40631.4677,(-4.53%:7)</t>
-  </si>
-  <si>
-    <t>39980.4211,(-6.06%:6)</t>
-  </si>
-  <si>
-    <t>38836.1928,(-8.75%:1)</t>
-  </si>
-  <si>
-    <t>39691.6939,(-6.74%:4)</t>
-  </si>
-  <si>
-    <t>38918.7485,(-8.56%:2)</t>
-  </si>
-  <si>
-    <t>39679.2833,(-6.77%:3)</t>
-  </si>
-  <si>
-    <t>-0.35%</t>
-  </si>
-  <si>
-    <t>-0.56%</t>
-  </si>
-  <si>
-    <t>-0.57%</t>
-  </si>
-  <si>
-    <t>-0.18%</t>
-  </si>
-  <si>
-    <t>-0.01%</t>
-  </si>
-  <si>
-    <t>-0.10%</t>
-  </si>
-  <si>
-    <t>house_sales:regression</t>
-  </si>
-  <si>
-    <t>122265.4221,(0.00%:3)</t>
-  </si>
-  <si>
-    <t>132909.4048,(8.71%:8)</t>
-  </si>
-  <si>
-    <t>120989.2703,(-1.04%:2)</t>
-  </si>
-  <si>
-    <t>120912.2228,(-1.11%:1)</t>
-  </si>
-  <si>
-    <t>128894.9734,(5.42%:7)</t>
-  </si>
-  <si>
-    <t>126765.8830,(3.68%:4)</t>
-  </si>
-  <si>
-    <t>128288.1929,(4.93%:6)</t>
-  </si>
-  <si>
-    <t>127769.9770,(4.50%:5)</t>
-  </si>
-  <si>
-    <t>122534.5506,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>128598.6535,(4.95%:6)</t>
-  </si>
-  <si>
-    <t>128917.6401,(5.21%:8)</t>
-  </si>
-  <si>
-    <t>128690.5362,(5.02%:7)</t>
-  </si>
-  <si>
-    <t>125101.2660,(2.09%:3)</t>
-  </si>
-  <si>
-    <t>125552.6690,(2.46%:4)</t>
-  </si>
-  <si>
-    <t>125616.1654,(2.51%:5)</t>
-  </si>
-  <si>
-    <t>124843.0962,(1.88%:2)</t>
-  </si>
-  <si>
-    <t>124223.6029,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>118077.7572,(-4.95%:5)</t>
-  </si>
-  <si>
-    <t>118717.3249,(-4.43%:7)</t>
-  </si>
-  <si>
-    <t>118476.6205,(-4.63%:6)</t>
-  </si>
-  <si>
-    <t>116435.9452,(-6.27%:4)</t>
-  </si>
-  <si>
-    <t>115377.5156,(-7.12%:1)</t>
-  </si>
-  <si>
-    <t>116327.6350,(-6.36%:3)</t>
-  </si>
-  <si>
-    <t>115986.1711,(-6.63%:2)</t>
-  </si>
-  <si>
-    <t>125339.7829,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>134472.0846,(7.29%:8)</t>
-  </si>
-  <si>
-    <t>130293.0881,(3.95%:7)</t>
-  </si>
-  <si>
-    <t>129799.3785,(3.56%:6)</t>
-  </si>
-  <si>
-    <t>125503.3986,(0.13%:5)</t>
-  </si>
-  <si>
-    <t>125200.1664,(-0.11%:3)</t>
-  </si>
-  <si>
-    <t>124789.7996,(-0.44%:1)</t>
-  </si>
-  <si>
-    <t>125017.5884,(-0.26%:2)</t>
-  </si>
-  <si>
-    <t>128126.7357,(0.00%:5)</t>
-  </si>
-  <si>
-    <t>135882.6108,(6.05%:7)</t>
-  </si>
-  <si>
-    <t>135970.7700,(6.12%:8)</t>
-  </si>
-  <si>
-    <t>133561.8220,(4.24%:6)</t>
-  </si>
-  <si>
-    <t>127689.8864,(-0.34%:4)</t>
-  </si>
-  <si>
-    <t>125828.7739,(-1.79%:3)</t>
-  </si>
-  <si>
-    <t>125124.5107,(-2.34%:1)</t>
-  </si>
-  <si>
-    <t>125550.6364,(-2.01%:2)</t>
-  </si>
-  <si>
-    <t>183995.0293,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>170371.6812,(-7.40%:1)</t>
-  </si>
-  <si>
-    <t>174309.3058,(-5.26%:3)</t>
-  </si>
-  <si>
-    <t>171333.3133,(-6.88%:2)</t>
-  </si>
-  <si>
-    <t>175630.3125,(-4.55%:5)</t>
-  </si>
-  <si>
-    <t>178478.3599,(-3.00%:7)</t>
-  </si>
-  <si>
-    <t>174432.0201,(-5.20%:4)</t>
-  </si>
-  <si>
-    <t>176553.8269,(-4.04%:6)</t>
-  </si>
-  <si>
-    <t>2.44%</t>
-  </si>
-  <si>
-    <t>0.76%</t>
-  </si>
-  <si>
-    <t>0.03%</t>
-  </si>
-  <si>
-    <t>-0.58%</t>
-  </si>
-  <si>
-    <t>-0.98%</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>-1.09%</t>
-  </si>
-  <si>
-    <t>OnlineNewsPopularity:regression</t>
-  </si>
-  <si>
-    <t>12853.8276,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>12896.0634,(0.33%:4)</t>
-  </si>
-  <si>
-    <t>12886.0999,(0.25%:3)</t>
-  </si>
-  <si>
-    <t>12864.2716,(0.08%:2)</t>
-  </si>
-  <si>
-    <t>13687.3082,(6.48%:7)</t>
-  </si>
-  <si>
-    <t>13075.1946,(1.72%:6)</t>
-  </si>
-  <si>
-    <t>12991.0002,(1.07%:5)</t>
-  </si>
-  <si>
-    <t>13742.7911,(6.92%:8)</t>
-  </si>
-  <si>
-    <t>12943.8797,(0.00%:2)</t>
-  </si>
-  <si>
-    <t>12909.6262,(-0.26%:1)</t>
-  </si>
-  <si>
-    <t>12961.1196,(0.13%:3)</t>
-  </si>
-  <si>
-    <t>12961.4137,(0.14%:4)</t>
-  </si>
-  <si>
-    <t>13126.9051,(1.41%:7)</t>
-  </si>
-  <si>
-    <t>13111.2209,(1.29%:5)</t>
-  </si>
-  <si>
-    <t>13164.7434,(1.71%:8)</t>
-  </si>
-  <si>
-    <t>13115.1707,(1.32%:6)</t>
-  </si>
-  <si>
-    <t>12859.5735,(0.00%:2)</t>
-  </si>
-  <si>
-    <t>12835.9217,(-0.18%:1)</t>
-  </si>
-  <si>
-    <t>12875.2675,(0.12%:4)</t>
-  </si>
-  <si>
-    <t>12862.4704,(0.02%:3)</t>
-  </si>
-  <si>
-    <t>12928.3153,(0.53%:5)</t>
-  </si>
-  <si>
-    <t>12944.0882,(0.66%:6)</t>
-  </si>
-  <si>
-    <t>12963.6893,(0.81%:7)</t>
-  </si>
-  <si>
-    <t>12970.1362,(0.86%:8)</t>
-  </si>
-  <si>
-    <t>12869.5081,(0.00%:1)</t>
-  </si>
-  <si>
-    <t>12870.8631,(0.01%:2)</t>
-  </si>
-  <si>
-    <t>12873.7375,(0.03%:3)</t>
-  </si>
-  <si>
-    <t>12876.7043,(0.06%:4)</t>
-  </si>
-  <si>
-    <t>12893.1858,(0.18%:5)</t>
-  </si>
-  <si>
-    <t>12898.7313,(0.23%:6)</t>
-  </si>
-  <si>
-    <t>12910.9383,(0.32%:8)</t>
-  </si>
-  <si>
-    <t>12900.0368,(0.24%:7)</t>
-  </si>
-  <si>
-    <t>12926.5858,(0.00%:4)</t>
-  </si>
-  <si>
-    <t>12889.7359,(-0.29%:1)</t>
-  </si>
-  <si>
-    <t>12919.9711,(-0.05%:3)</t>
-  </si>
-  <si>
-    <t>12910.6019,(-0.12%:2)</t>
-  </si>
-  <si>
-    <t>13083.8841,(1.22%:7)</t>
-  </si>
-  <si>
-    <t>13082.7214,(1.21%:6)</t>
-  </si>
-  <si>
-    <t>13237.7444,(2.41%:8)</t>
-  </si>
-  <si>
-    <t>13079.6826,(1.18%:5)</t>
-  </si>
-  <si>
-    <t>12907.5190,(0.00%:3)</t>
-  </si>
-  <si>
-    <t>12904.9610,(-0.02%:1)</t>
-  </si>
-  <si>
-    <t>12907.2436,(-0.00%:2)</t>
-  </si>
-  <si>
-    <t>12917.4907,(0.08%:5)</t>
-  </si>
-  <si>
-    <t>12920.8205,(0.10%:7)</t>
-  </si>
-  <si>
-    <t>12924.1899,(0.13%:8)</t>
-  </si>
-  <si>
-    <t>12916.0713,(0.07%:4)</t>
-  </si>
-  <si>
-    <t>12919.5306,(0.09%:6)</t>
-  </si>
-  <si>
-    <t>-0.07%</t>
-  </si>
-  <si>
-    <t>0.08%</t>
-  </si>
-  <si>
-    <t>0.04%</t>
-  </si>
-  <si>
-    <t>1.66%</t>
-  </si>
-  <si>
-    <t>0.87%</t>
-  </si>
-  <si>
-    <t>1.06%</t>
-  </si>
-  <si>
-    <t>1.77%</t>
-  </si>
-  <si>
-    <t>pol:regression</t>
-  </si>
-  <si>
-    <t>6.2986,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>5.7425,(-8.83%:2)</t>
-  </si>
-  <si>
-    <t>5.7431,(-8.82%:3)</t>
-  </si>
-  <si>
-    <t>5.7462,(-8.77%:4)</t>
-  </si>
-  <si>
-    <t>5.7647,(-8.48%:5)</t>
-  </si>
-  <si>
-    <t>5.6686,(-10.00%:1)</t>
-  </si>
-  <si>
-    <t>5.9338,(-5.79%:7)</t>
-  </si>
-  <si>
-    <t>5.8056,(-7.83%:6)</t>
-  </si>
-  <si>
-    <t>8.8105,(0.00%:6)</t>
-  </si>
-  <si>
-    <t>8.7951,(-0.17%:5)</t>
-  </si>
-  <si>
-    <t>8.8251,(0.17%:8)</t>
-  </si>
-  <si>
-    <t>8.8244,(0.16%:7)</t>
-  </si>
-  <si>
-    <t>8.7047,(-1.20%:3)</t>
-  </si>
-  <si>
-    <t>8.7045,(-1.20%:2)</t>
-  </si>
-  <si>
-    <t>8.7016,(-1.24%:1)</t>
-  </si>
-  <si>
-    <t>8.7101,(-1.14%:4)</t>
-  </si>
-  <si>
-    <t>2.8089,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>2.6397,(-6.03%:6)</t>
-  </si>
-  <si>
-    <t>2.6309,(-6.34%:5)</t>
-  </si>
-  <si>
-    <t>2.6409,(-5.98%:7)</t>
-  </si>
-  <si>
-    <t>2.6032,(-7.32%:4)</t>
-  </si>
-  <si>
-    <t>2.5952,(-7.61%:3)</t>
-  </si>
-  <si>
-    <t>2.5429,(-9.47%:1)</t>
-  </si>
-  <si>
-    <t>2.5528,(-9.12%:2)</t>
-  </si>
-  <si>
-    <t>9.9422,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>9.8660,(-0.77%:2)</t>
-  </si>
-  <si>
-    <t>9.8673,(-0.75%:4)</t>
-  </si>
-  <si>
-    <t>9.8672,(-0.75%:3)</t>
-  </si>
-  <si>
-    <t>9.8680,(-0.75%:5)</t>
-  </si>
-  <si>
-    <t>9.8659,(-0.77%:1)</t>
-  </si>
-  <si>
-    <t>9.8894,(-0.53%:7)</t>
-  </si>
-  <si>
-    <t>9.8718,(-0.71%:6)</t>
-  </si>
-  <si>
-    <t>10.5051,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>10.1640,(-3.25%:2)</t>
-  </si>
-  <si>
-    <t>10.1623,(-3.26%:1)</t>
-  </si>
-  <si>
-    <t>10.1803,(-3.09%:3)</t>
-  </si>
-  <si>
-    <t>10.2417,(-2.51%:6)</t>
-  </si>
-  <si>
-    <t>10.2462,(-2.46%:7)</t>
-  </si>
-  <si>
-    <t>10.2018,(-2.89%:5)</t>
-  </si>
-  <si>
-    <t>10.1857,(-3.04%:4)</t>
-  </si>
-  <si>
-    <t>16.7229,(0.00%:8)</t>
-  </si>
-  <si>
-    <t>10.9010,(-34.81%:4)</t>
-  </si>
-  <si>
-    <t>10.9134,(-34.74%:5)</t>
-  </si>
-  <si>
-    <t>10.9600,(-34.46%:7)</t>
-  </si>
-  <si>
-    <t>10.8145,(-35.33%:2)</t>
-  </si>
-  <si>
-    <t>10.9149,(-34.73%:6)</t>
-  </si>
-  <si>
-    <t>10.6337,(-36.41%:1)</t>
-  </si>
-  <si>
-    <t>10.8815,(-34.93%:3)</t>
-  </si>
-  <si>
-    <t>7.67</t>
-  </si>
-  <si>
-    <t>-8.98%</t>
-  </si>
-  <si>
-    <t>-8.96%</t>
-  </si>
-  <si>
-    <t>-8.82%</t>
-  </si>
-  <si>
-    <t>-9.26%</t>
-  </si>
-  <si>
-    <t>-9.46%</t>
-  </si>
-  <si>
-    <t>-9.39%</t>
-  </si>
-  <si>
-    <t>total_avg_rank</t>
-  </si>
-  <si>
-    <t>total_avg_percentage</t>
-  </si>
-  <si>
-    <t>-3.42%</t>
-  </si>
-  <si>
-    <t>-3.90%</t>
-  </si>
-  <si>
-    <t>-3.01%</t>
-  </si>
-  <si>
-    <t>-4.30%</t>
-  </si>
-  <si>
-    <t>-3.81%</t>
-  </si>
-  <si>
-    <t>-4.01%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3599,8 +3601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4925,34 +4927,34 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>325</v>
+        <v>1062</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" t="s">
+        <v>325</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -4963,28 +4965,28 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
+        <v>333</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -4995,28 +4997,28 @@
         <v>30</v>
       </c>
       <c r="C44" t="s">
+        <v>341</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -5027,28 +5029,28 @@
         <v>39</v>
       </c>
       <c r="C45" t="s">
+        <v>349</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -5059,28 +5061,28 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
+        <v>357</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -5091,28 +5093,28 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
+        <v>365</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -5123,25 +5125,25 @@
         <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D48" t="s">
         <v>196</v>
       </c>
       <c r="E48" t="s">
+        <v>373</v>
+      </c>
+      <c r="F48" t="s">
         <v>374</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>375</v>
-      </c>
-      <c r="G48" t="s">
-        <v>376</v>
       </c>
       <c r="H48" t="s">
         <v>195</v>
       </c>
       <c r="I48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J48" t="s">
         <v>256</v>
@@ -5158,57 +5160,57 @@
         <v>74</v>
       </c>
       <c r="D49" t="s">
+        <v>377</v>
+      </c>
+      <c r="E49" t="s">
         <v>378</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>379</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>380</v>
-      </c>
-      <c r="G49" t="s">
-        <v>381</v>
       </c>
       <c r="H49" t="s">
         <v>321</v>
       </c>
       <c r="I49" t="s">
+        <v>381</v>
+      </c>
+      <c r="J49" t="s">
         <v>382</v>
-      </c>
-      <c r="J49" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>384</v>
+        <v>1063</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="C50" t="s">
+        <v>383</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="G50" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="H50" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -5219,28 +5221,28 @@
         <v>21</v>
       </c>
       <c r="C51" t="s">
+        <v>391</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="G51" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="I51" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -5251,28 +5253,28 @@
         <v>30</v>
       </c>
       <c r="C52" t="s">
+        <v>399</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -5283,28 +5285,28 @@
         <v>39</v>
       </c>
       <c r="C53" t="s">
+        <v>407</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -5315,28 +5317,28 @@
         <v>48</v>
       </c>
       <c r="C54" t="s">
+        <v>415</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -5347,28 +5349,28 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
+        <v>423</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -5391,7 +5393,7 @@
         <v>194</v>
       </c>
       <c r="G56" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H56" t="s">
         <v>71</v>
@@ -5420,51 +5422,51 @@
         <v>139</v>
       </c>
       <c r="F57" t="s">
+        <v>432</v>
+      </c>
+      <c r="G57" t="s">
+        <v>433</v>
+      </c>
+      <c r="H57" t="s">
         <v>434</v>
       </c>
-      <c r="G57" t="s">
+      <c r="I57" t="s">
         <v>435</v>
       </c>
-      <c r="H57" t="s">
+      <c r="J57" t="s">
         <v>436</v>
-      </c>
-      <c r="I57" t="s">
-        <v>437</v>
-      </c>
-      <c r="J57" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
       </c>
       <c r="C58" t="s">
+        <v>438</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -5475,28 +5477,28 @@
         <v>21</v>
       </c>
       <c r="C59" t="s">
+        <v>446</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="G59" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="I59" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -5507,28 +5509,28 @@
         <v>30</v>
       </c>
       <c r="C60" t="s">
+        <v>454</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -5539,28 +5541,28 @@
         <v>39</v>
       </c>
       <c r="C61" t="s">
+        <v>462</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="I61" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="J61" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -5571,28 +5573,28 @@
         <v>48</v>
       </c>
       <c r="C62" t="s">
+        <v>470</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -5603,28 +5605,28 @@
         <v>57</v>
       </c>
       <c r="C63" t="s">
+        <v>478</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -5635,7 +5637,7 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D64" t="s">
         <v>71</v>
@@ -5656,7 +5658,7 @@
         <v>314</v>
       </c>
       <c r="J64" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -5670,57 +5672,57 @@
         <v>74</v>
       </c>
       <c r="D65" t="s">
+        <v>488</v>
+      </c>
+      <c r="E65" t="s">
+        <v>489</v>
+      </c>
+      <c r="F65" t="s">
         <v>490</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
         <v>491</v>
       </c>
-      <c r="F65" t="s">
+      <c r="H65" t="s">
         <v>492</v>
       </c>
-      <c r="G65" t="s">
+      <c r="I65" t="s">
         <v>493</v>
       </c>
-      <c r="H65" t="s">
+      <c r="J65" t="s">
         <v>494</v>
-      </c>
-      <c r="I65" t="s">
-        <v>495</v>
-      </c>
-      <c r="J65" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
       </c>
       <c r="C66" t="s">
+        <v>496</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="G66" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -5731,28 +5733,28 @@
         <v>21</v>
       </c>
       <c r="C67" t="s">
+        <v>504</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -5763,28 +5765,28 @@
         <v>30</v>
       </c>
       <c r="C68" t="s">
+        <v>512</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="F68" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="H68" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="I68" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="J68" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -5795,28 +5797,28 @@
         <v>39</v>
       </c>
       <c r="C69" t="s">
+        <v>520</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -5827,28 +5829,28 @@
         <v>48</v>
       </c>
       <c r="C70" t="s">
+        <v>528</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="G70" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="I70" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -5859,28 +5861,28 @@
         <v>57</v>
       </c>
       <c r="C71" t="s">
+        <v>536</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -5894,7 +5896,7 @@
         <v>67</v>
       </c>
       <c r="D72" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E72" t="s">
         <v>315</v>
@@ -5906,13 +5908,13 @@
         <v>69</v>
       </c>
       <c r="H72" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I72" t="s">
         <v>315</v>
       </c>
       <c r="J72" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -5926,57 +5928,57 @@
         <v>74</v>
       </c>
       <c r="D73" t="s">
+        <v>544</v>
+      </c>
+      <c r="E73" t="s">
+        <v>545</v>
+      </c>
+      <c r="F73" t="s">
         <v>546</v>
-      </c>
-      <c r="E73" t="s">
-        <v>547</v>
-      </c>
-      <c r="F73" t="s">
-        <v>548</v>
       </c>
       <c r="G73" t="s">
         <v>322</v>
       </c>
       <c r="H73" t="s">
+        <v>547</v>
+      </c>
+      <c r="I73" t="s">
+        <v>548</v>
+      </c>
+      <c r="J73" t="s">
         <v>549</v>
-      </c>
-      <c r="I73" t="s">
-        <v>550</v>
-      </c>
-      <c r="J73" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
+        <v>551</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -5987,28 +5989,28 @@
         <v>21</v>
       </c>
       <c r="C75" t="s">
+        <v>559</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="J75" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -6019,28 +6021,28 @@
         <v>30</v>
       </c>
       <c r="C76" t="s">
+        <v>567</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="J76" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -6051,28 +6053,28 @@
         <v>39</v>
       </c>
       <c r="C77" t="s">
+        <v>575</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -6083,28 +6085,28 @@
         <v>48</v>
       </c>
       <c r="C78" t="s">
+        <v>583</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -6115,28 +6117,28 @@
         <v>57</v>
       </c>
       <c r="C79" t="s">
+        <v>591</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -6147,7 +6149,7 @@
         <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D80" t="s">
         <v>67</v>
@@ -6165,7 +6167,7 @@
         <v>195</v>
       </c>
       <c r="I80" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J80" t="s">
         <v>136</v>
@@ -6182,57 +6184,57 @@
         <v>74</v>
       </c>
       <c r="D81" t="s">
+        <v>601</v>
+      </c>
+      <c r="E81" t="s">
+        <v>602</v>
+      </c>
+      <c r="F81" t="s">
         <v>603</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>604</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
         <v>605</v>
       </c>
-      <c r="G81" t="s">
+      <c r="I81" t="s">
         <v>606</v>
       </c>
-      <c r="H81" t="s">
+      <c r="J81" t="s">
         <v>607</v>
-      </c>
-      <c r="I81" t="s">
-        <v>608</v>
-      </c>
-      <c r="J81" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
       </c>
       <c r="C82" t="s">
+        <v>609</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="G82" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="H82" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="J82" s="3" t="s">
         <v>616</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -6243,28 +6245,28 @@
         <v>21</v>
       </c>
       <c r="C83" t="s">
+        <v>617</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="J83" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -6275,28 +6277,28 @@
         <v>30</v>
       </c>
       <c r="C84" t="s">
+        <v>625</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="G84" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="H84" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -6307,28 +6309,28 @@
         <v>39</v>
       </c>
       <c r="C85" t="s">
+        <v>633</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="F85" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="H85" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="J85" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -6339,28 +6341,28 @@
         <v>48</v>
       </c>
       <c r="C86" t="s">
+        <v>641</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -6371,28 +6373,28 @@
         <v>57</v>
       </c>
       <c r="C87" t="s">
+        <v>649</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="J87" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -6412,10 +6414,10 @@
         <v>193</v>
       </c>
       <c r="F88" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G88" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H88" t="s">
         <v>72</v>
@@ -6438,57 +6440,57 @@
         <v>74</v>
       </c>
       <c r="D89" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E89" t="s">
+        <v>657</v>
+      </c>
+      <c r="F89" t="s">
+        <v>658</v>
+      </c>
+      <c r="G89" t="s">
         <v>659</v>
       </c>
-      <c r="F89" t="s">
+      <c r="H89" t="s">
         <v>660</v>
       </c>
-      <c r="G89" t="s">
+      <c r="I89" t="s">
+        <v>544</v>
+      </c>
+      <c r="J89" t="s">
         <v>661</v>
-      </c>
-      <c r="H89" t="s">
-        <v>662</v>
-      </c>
-      <c r="I89" t="s">
-        <v>546</v>
-      </c>
-      <c r="J89" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
       </c>
       <c r="C90" t="s">
+        <v>663</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="J90" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -6499,28 +6501,28 @@
         <v>21</v>
       </c>
       <c r="C91" t="s">
+        <v>671</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="F91" t="s">
         <v>674</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H91" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="I91" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="J91" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -6531,28 +6533,28 @@
         <v>30</v>
       </c>
       <c r="C92" t="s">
+        <v>679</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="J92" s="2" t="s">
         <v>686</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -6563,28 +6565,28 @@
         <v>39</v>
       </c>
       <c r="C93" t="s">
+        <v>687</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="G93" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="H93" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="I93" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="J93" s="3" t="s">
         <v>694</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -6595,28 +6597,28 @@
         <v>48</v>
       </c>
       <c r="C94" t="s">
+        <v>695</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="J94" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -6627,28 +6629,28 @@
         <v>57</v>
       </c>
       <c r="C95" t="s">
+        <v>703</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="J95" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -6662,13 +6664,13 @@
         <v>253</v>
       </c>
       <c r="D96" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E96" t="s">
         <v>69</v>
       </c>
       <c r="F96" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G96" t="s">
         <v>255</v>
@@ -6694,57 +6696,57 @@
         <v>74</v>
       </c>
       <c r="D97" t="s">
+        <v>711</v>
+      </c>
+      <c r="E97" t="s">
+        <v>712</v>
+      </c>
+      <c r="F97" t="s">
         <v>713</v>
       </c>
-      <c r="E97" t="s">
+      <c r="G97" t="s">
         <v>714</v>
       </c>
-      <c r="F97" t="s">
+      <c r="H97" t="s">
         <v>715</v>
       </c>
-      <c r="G97" t="s">
+      <c r="I97" t="s">
         <v>716</v>
       </c>
-      <c r="H97" t="s">
+      <c r="J97" t="s">
         <v>717</v>
-      </c>
-      <c r="I97" t="s">
-        <v>718</v>
-      </c>
-      <c r="J97" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
       </c>
       <c r="C98" t="s">
+        <v>719</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="J98" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -6755,28 +6757,28 @@
         <v>21</v>
       </c>
       <c r="C99" t="s">
+        <v>727</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="F99" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="G99" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="H99" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="I99" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="H99" s="3" t="s">
+      <c r="J99" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -6787,28 +6789,28 @@
         <v>30</v>
       </c>
       <c r="C100" t="s">
+        <v>735</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="F100" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="G100" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="H100" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="I100" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="J100" s="3" t="s">
         <v>742</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -6819,28 +6821,28 @@
         <v>39</v>
       </c>
       <c r="C101" t="s">
+        <v>743</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="F101" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="G101" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="H101" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="I101" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="J101" s="3" t="s">
         <v>750</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -6851,28 +6853,28 @@
         <v>48</v>
       </c>
       <c r="C102" t="s">
+        <v>751</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="G102" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="I102" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="J102" s="2" t="s">
         <v>758</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -6883,28 +6885,28 @@
         <v>57</v>
       </c>
       <c r="C103" t="s">
+        <v>759</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="F103" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="G103" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="H103" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="I103" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="J103" s="3" t="s">
         <v>766</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -6918,19 +6920,19 @@
         <v>195</v>
       </c>
       <c r="D104" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E104" t="s">
         <v>72</v>
       </c>
       <c r="F104" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G104" t="s">
         <v>195</v>
       </c>
       <c r="H104" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I104" t="s">
         <v>72</v>
@@ -6950,57 +6952,57 @@
         <v>74</v>
       </c>
       <c r="D105" t="s">
+        <v>767</v>
+      </c>
+      <c r="E105" t="s">
+        <v>768</v>
+      </c>
+      <c r="F105" t="s">
         <v>769</v>
       </c>
-      <c r="E105" t="s">
+      <c r="G105" t="s">
         <v>770</v>
       </c>
-      <c r="F105" t="s">
+      <c r="H105" t="s">
         <v>771</v>
       </c>
-      <c r="G105" t="s">
+      <c r="I105" t="s">
         <v>772</v>
       </c>
-      <c r="H105" t="s">
+      <c r="J105" t="s">
         <v>773</v>
-      </c>
-      <c r="I105" t="s">
-        <v>774</v>
-      </c>
-      <c r="J105" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
       </c>
       <c r="C106" t="s">
+        <v>775</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="F106" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="G106" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="H106" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="I106" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="J106" s="3" t="s">
         <v>782</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -7011,28 +7013,28 @@
         <v>21</v>
       </c>
       <c r="C107" t="s">
+        <v>783</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="F107" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="G107" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="H107" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="I107" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="H107" s="3" t="s">
+      <c r="J107" s="3" t="s">
         <v>790</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -7043,28 +7045,28 @@
         <v>30</v>
       </c>
       <c r="C108" t="s">
+        <v>791</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="F108" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="G108" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="H108" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="I108" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="J108" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -7075,28 +7077,28 @@
         <v>39</v>
       </c>
       <c r="C109" t="s">
+        <v>799</v>
+      </c>
+      <c r="D109" t="s">
+        <v>800</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="D109" t="s">
+      <c r="F109" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="G109" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="H109" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="I109" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="J109" s="3" t="s">
         <v>806</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -7107,28 +7109,28 @@
         <v>48</v>
       </c>
       <c r="C110" t="s">
+        <v>807</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="F110" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="I110" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="J110" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -7139,28 +7141,28 @@
         <v>57</v>
       </c>
       <c r="C111" t="s">
+        <v>815</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="J111" s="2" t="s">
         <v>822</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -7174,7 +7176,7 @@
         <v>72</v>
       </c>
       <c r="D112" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E112" t="s">
         <v>196</v>
@@ -7206,57 +7208,57 @@
         <v>74</v>
       </c>
       <c r="D113" t="s">
+        <v>824</v>
+      </c>
+      <c r="E113" t="s">
+        <v>825</v>
+      </c>
+      <c r="F113" t="s">
         <v>826</v>
       </c>
-      <c r="E113" t="s">
+      <c r="G113" t="s">
         <v>827</v>
       </c>
-      <c r="F113" t="s">
+      <c r="H113" t="s">
         <v>828</v>
       </c>
-      <c r="G113" t="s">
+      <c r="I113" t="s">
         <v>829</v>
       </c>
-      <c r="H113" t="s">
+      <c r="J113" t="s">
         <v>830</v>
-      </c>
-      <c r="I113" t="s">
-        <v>831</v>
-      </c>
-      <c r="J113" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
       </c>
       <c r="C114" t="s">
+        <v>832</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="F114" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="H114" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="I114" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="J114" s="3" t="s">
         <v>839</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -7267,28 +7269,28 @@
         <v>21</v>
       </c>
       <c r="C115" t="s">
+        <v>840</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="F115" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="G115" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="H115" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="I115" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="J115" s="3" t="s">
         <v>847</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -7299,28 +7301,28 @@
         <v>30</v>
       </c>
       <c r="C116" t="s">
+        <v>848</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="E116" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="F116" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="G116" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="H116" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="I116" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="H116" s="3" t="s">
+      <c r="J116" s="3" t="s">
         <v>855</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -7331,28 +7333,28 @@
         <v>39</v>
       </c>
       <c r="C117" t="s">
+        <v>856</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="H117" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="I117" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="J117" s="2" t="s">
         <v>863</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -7363,28 +7365,28 @@
         <v>48</v>
       </c>
       <c r="C118" t="s">
+        <v>864</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="F118" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="G118" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="H118" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="J118" s="2" t="s">
         <v>871</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -7395,28 +7397,28 @@
         <v>57</v>
       </c>
       <c r="C119" t="s">
+        <v>872</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="J119" s="2" t="s">
         <v>879</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -7433,7 +7435,7 @@
         <v>195</v>
       </c>
       <c r="E120" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F120" t="s">
         <v>316</v>
@@ -7445,10 +7447,10 @@
         <v>194</v>
       </c>
       <c r="I120" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J120" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -7465,54 +7467,54 @@
         <v>318</v>
       </c>
       <c r="E121" t="s">
+        <v>880</v>
+      </c>
+      <c r="F121" t="s">
+        <v>881</v>
+      </c>
+      <c r="G121" t="s">
         <v>882</v>
       </c>
-      <c r="F121" t="s">
+      <c r="H121" t="s">
         <v>883</v>
       </c>
-      <c r="G121" t="s">
+      <c r="I121" t="s">
         <v>884</v>
       </c>
-      <c r="H121" t="s">
+      <c r="J121" t="s">
         <v>885</v>
-      </c>
-      <c r="I121" t="s">
-        <v>886</v>
-      </c>
-      <c r="J121" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
       </c>
       <c r="C122" t="s">
+        <v>887</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="F122" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="G122" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="H122" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="I122" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="J122" s="3" t="s">
         <v>894</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -7523,28 +7525,28 @@
         <v>21</v>
       </c>
       <c r="C123" t="s">
+        <v>895</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="F123" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="G123" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="H123" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="I123" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="J123" s="3" t="s">
         <v>902</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -7555,28 +7557,28 @@
         <v>30</v>
       </c>
       <c r="C124" t="s">
+        <v>903</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="G124" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="H124" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="I124" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="J124" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -7587,28 +7589,28 @@
         <v>39</v>
       </c>
       <c r="C125" t="s">
+        <v>911</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="F125" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="G125" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="H125" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="I125" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="J125" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -7619,28 +7621,28 @@
         <v>48</v>
       </c>
       <c r="C126" t="s">
+        <v>919</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="F126" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="G126" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="H126" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="I126" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="H126" s="2" t="s">
+      <c r="J126" s="2" t="s">
         <v>926</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -7651,28 +7653,28 @@
         <v>57</v>
       </c>
       <c r="C127" t="s">
+        <v>927</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="J127" s="2" t="s">
         <v>934</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -7683,7 +7685,7 @@
         <v>66</v>
       </c>
       <c r="C128" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D128" t="s">
         <v>193</v>
@@ -7701,7 +7703,7 @@
         <v>194</v>
       </c>
       <c r="I128" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J128" t="s">
         <v>70</v>
@@ -7718,57 +7720,57 @@
         <v>74</v>
       </c>
       <c r="D129" t="s">
+        <v>935</v>
+      </c>
+      <c r="E129" t="s">
+        <v>936</v>
+      </c>
+      <c r="F129" t="s">
         <v>937</v>
       </c>
-      <c r="E129" t="s">
+      <c r="G129" t="s">
         <v>938</v>
       </c>
-      <c r="F129" t="s">
+      <c r="H129" t="s">
         <v>939</v>
       </c>
-      <c r="G129" t="s">
+      <c r="I129" t="s">
         <v>940</v>
       </c>
-      <c r="H129" t="s">
+      <c r="J129" t="s">
         <v>941</v>
-      </c>
-      <c r="I129" t="s">
-        <v>942</v>
-      </c>
-      <c r="J129" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
       </c>
       <c r="C130" t="s">
+        <v>943</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="F130" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="G130" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="H130" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="I130" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="J130" s="3" t="s">
         <v>950</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>951</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -7779,28 +7781,28 @@
         <v>21</v>
       </c>
       <c r="C131" t="s">
+        <v>951</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="F131" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="G131" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="H131" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="I131" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="J131" s="3" t="s">
         <v>958</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -7811,28 +7813,28 @@
         <v>30</v>
       </c>
       <c r="C132" t="s">
+        <v>959</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="F132" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="G132" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="H132" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="I132" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="J132" s="3" t="s">
         <v>966</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -7843,28 +7845,28 @@
         <v>39</v>
       </c>
       <c r="C133" t="s">
+        <v>967</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="E133" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="F133" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="G133" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="H133" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="I133" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="J133" s="3" t="s">
         <v>974</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -7875,28 +7877,28 @@
         <v>48</v>
       </c>
       <c r="C134" t="s">
+        <v>975</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="G134" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="H134" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="I134" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="J134" s="3" t="s">
         <v>982</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>983</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -7907,28 +7909,28 @@
         <v>57</v>
       </c>
       <c r="C135" t="s">
+        <v>983</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="E135" t="s">
         <v>985</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="F135" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="E135" t="s">
+      <c r="G135" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="H135" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="I135" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="J135" s="3" t="s">
         <v>990</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -7945,10 +7947,10 @@
         <v>317</v>
       </c>
       <c r="E136" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F136" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G136" t="s">
         <v>316</v>
@@ -7957,10 +7959,10 @@
         <v>133</v>
       </c>
       <c r="I136" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J136" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -7974,57 +7976,57 @@
         <v>74</v>
       </c>
       <c r="D137" t="s">
+        <v>991</v>
+      </c>
+      <c r="E137" t="s">
+        <v>992</v>
+      </c>
+      <c r="F137" t="s">
         <v>993</v>
       </c>
-      <c r="E137" t="s">
+      <c r="G137" t="s">
         <v>994</v>
       </c>
-      <c r="F137" t="s">
+      <c r="H137" t="s">
         <v>995</v>
       </c>
-      <c r="G137" t="s">
+      <c r="I137" t="s">
         <v>996</v>
       </c>
-      <c r="H137" t="s">
+      <c r="J137" t="s">
         <v>997</v>
-      </c>
-      <c r="I137" t="s">
-        <v>998</v>
-      </c>
-      <c r="J137" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
       </c>
       <c r="C138" t="s">
+        <v>999</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="F138" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="G138" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="H138" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="I138" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="H138" s="2" t="s">
+      <c r="J138" s="2" t="s">
         <v>1006</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -8035,28 +8037,28 @@
         <v>21</v>
       </c>
       <c r="C139" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="F139" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="G139" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="H139" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="I139" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="H139" s="2" t="s">
+      <c r="J139" s="2" t="s">
         <v>1014</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="J139" s="2" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -8067,28 +8069,28 @@
         <v>30</v>
       </c>
       <c r="C140" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="F140" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="G140" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="H140" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="I140" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="H140" s="2" t="s">
+      <c r="J140" s="2" t="s">
         <v>1022</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -8099,28 +8101,28 @@
         <v>39</v>
       </c>
       <c r="C141" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="F141" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="G141" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="H141" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="I141" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="H141" s="2" t="s">
+      <c r="J141" s="2" t="s">
         <v>1030</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -8131,28 +8133,28 @@
         <v>48</v>
       </c>
       <c r="C142" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="G142" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="H142" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="I142" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="H142" s="2" t="s">
+      <c r="J142" s="2" t="s">
         <v>1038</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -8163,28 +8165,28 @@
         <v>57</v>
       </c>
       <c r="C143" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="F143" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="G143" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="H143" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="I143" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="H143" s="2" t="s">
+      <c r="J143" s="2" t="s">
         <v>1046</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -8195,7 +8197,7 @@
         <v>66</v>
       </c>
       <c r="C144" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D144" t="s">
         <v>136</v>
@@ -8204,13 +8206,13 @@
         <v>69</v>
       </c>
       <c r="F144" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G144" t="s">
         <v>72</v>
       </c>
       <c r="H144" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I144" t="s">
         <v>194</v>
@@ -8230,25 +8232,25 @@
         <v>74</v>
       </c>
       <c r="D145" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F145" t="s">
         <v>1050</v>
       </c>
-      <c r="E145" t="s">
+      <c r="G145" t="s">
         <v>1051</v>
       </c>
-      <c r="F145" t="s">
+      <c r="H145" t="s">
         <v>1052</v>
       </c>
-      <c r="G145" t="s">
+      <c r="I145" t="s">
         <v>1053</v>
       </c>
-      <c r="H145" t="s">
-        <v>1054</v>
-      </c>
-      <c r="I145" t="s">
-        <v>1055</v>
-      </c>
       <c r="J145" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -8256,7 +8258,7 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C146" s="4">
         <v>5.8888888888888893</v>
@@ -8288,31 +8290,31 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C147" t="s">
         <v>74</v>
       </c>
       <c r="D147" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F147" t="s">
         <v>1058</v>
       </c>
-      <c r="E147" t="s">
+      <c r="G147" t="s">
         <v>1059</v>
       </c>
-      <c r="F147" t="s">
+      <c r="H147" t="s">
         <v>1060</v>
       </c>
-      <c r="G147" t="s">
+      <c r="I147" t="s">
+        <v>548</v>
+      </c>
+      <c r="J147" t="s">
         <v>1061</v>
-      </c>
-      <c r="H147" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I147" t="s">
-        <v>550</v>
-      </c>
-      <c r="J147" t="s">
-        <v>1063</v>
       </c>
     </row>
   </sheetData>

--- a/v5/main_exp/regression_cov_orth.xlsx
+++ b/v5/main_exp/regression_cov_orth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\v5\main_exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCD6141-49B6-4593-B28F-527C565D9B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5E8AAE-C610-451B-9131-096E2D2FD1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="5450" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -817,9 +817,6 @@
     <t>-7.90%</t>
   </si>
   <si>
-    <t>concrete_compressive_strength:regression</t>
-  </si>
-  <si>
     <t>4.8096,(0.00%:6)</t>
   </si>
   <si>
@@ -1670,9 +1667,6 @@
   </si>
   <si>
     <t>-5.93%</t>
-  </si>
-  <si>
-    <t>yacht_hydrodynamics:regression</t>
   </si>
   <si>
     <t>3.7701,(0.00%:8)</t>
@@ -3213,6 +3207,14 @@
   </si>
   <si>
     <t>elevators:regression</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yacht_hydrodynamics:regression</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>concrete_compressive_strength:regression</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3232,18 +3234,21 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3601,8 +3606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4671,34 +4676,34 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>265</v>
+        <v>1063</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -4709,28 +4714,28 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
+        <v>273</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -4741,28 +4746,28 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -4773,28 +4778,28 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
+        <v>289</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -4805,28 +4810,28 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
+        <v>297</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -4837,28 +4842,28 @@
         <v>57</v>
       </c>
       <c r="C39" t="s">
+        <v>305</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -4869,16 +4874,16 @@
         <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D40" t="s">
         <v>132</v>
       </c>
       <c r="E40" t="s">
+        <v>314</v>
+      </c>
+      <c r="F40" t="s">
         <v>315</v>
-      </c>
-      <c r="F40" t="s">
-        <v>316</v>
       </c>
       <c r="G40" t="s">
         <v>257</v>
@@ -4887,7 +4892,7 @@
         <v>71</v>
       </c>
       <c r="I40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J40" t="s">
         <v>256</v>
@@ -4904,57 +4909,57 @@
         <v>74</v>
       </c>
       <c r="D41" t="s">
+        <v>317</v>
+      </c>
+      <c r="E41" t="s">
         <v>318</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>319</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>320</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>321</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>322</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>323</v>
-      </c>
-      <c r="J41" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" t="s">
+        <v>324</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -4965,28 +4970,28 @@
         <v>21</v>
       </c>
       <c r="C43" t="s">
+        <v>332</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -4997,28 +5002,28 @@
         <v>30</v>
       </c>
       <c r="C44" t="s">
+        <v>340</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -5029,28 +5034,28 @@
         <v>39</v>
       </c>
       <c r="C45" t="s">
+        <v>348</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -5061,28 +5066,28 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
+        <v>356</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -5093,28 +5098,28 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
+        <v>364</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -5125,25 +5130,25 @@
         <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D48" t="s">
         <v>196</v>
       </c>
       <c r="E48" t="s">
+        <v>372</v>
+      </c>
+      <c r="F48" t="s">
         <v>373</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>374</v>
-      </c>
-      <c r="G48" t="s">
-        <v>375</v>
       </c>
       <c r="H48" t="s">
         <v>195</v>
       </c>
       <c r="I48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J48" t="s">
         <v>256</v>
@@ -5160,57 +5165,57 @@
         <v>74</v>
       </c>
       <c r="D49" t="s">
+        <v>376</v>
+      </c>
+      <c r="E49" t="s">
         <v>377</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>378</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>379</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
+        <v>320</v>
+      </c>
+      <c r="I49" t="s">
         <v>380</v>
       </c>
-      <c r="H49" t="s">
-        <v>321</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>381</v>
-      </c>
-      <c r="J49" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="C50" t="s">
+        <v>382</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -5221,28 +5226,28 @@
         <v>21</v>
       </c>
       <c r="C51" t="s">
+        <v>390</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -5253,28 +5258,28 @@
         <v>30</v>
       </c>
       <c r="C52" t="s">
+        <v>398</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -5285,28 +5290,28 @@
         <v>39</v>
       </c>
       <c r="C53" t="s">
+        <v>406</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -5317,28 +5322,28 @@
         <v>48</v>
       </c>
       <c r="C54" t="s">
+        <v>414</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -5349,28 +5354,28 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -5393,7 +5398,7 @@
         <v>194</v>
       </c>
       <c r="G56" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H56" t="s">
         <v>71</v>
@@ -5422,51 +5427,51 @@
         <v>139</v>
       </c>
       <c r="F57" t="s">
+        <v>431</v>
+      </c>
+      <c r="G57" t="s">
         <v>432</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>433</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>434</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>435</v>
-      </c>
-      <c r="J57" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
       </c>
       <c r="C58" t="s">
+        <v>437</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -5477,28 +5482,28 @@
         <v>21</v>
       </c>
       <c r="C59" t="s">
+        <v>445</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="J59" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -5509,28 +5514,28 @@
         <v>30</v>
       </c>
       <c r="C60" t="s">
+        <v>453</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -5541,28 +5546,28 @@
         <v>39</v>
       </c>
       <c r="C61" t="s">
+        <v>461</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="I61" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="J61" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -5573,28 +5578,28 @@
         <v>48</v>
       </c>
       <c r="C62" t="s">
+        <v>469</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -5605,28 +5610,28 @@
         <v>57</v>
       </c>
       <c r="C63" t="s">
+        <v>477</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -5637,7 +5642,7 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D64" t="s">
         <v>71</v>
@@ -5655,10 +5660,10 @@
         <v>195</v>
       </c>
       <c r="I64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J64" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -5672,57 +5677,57 @@
         <v>74</v>
       </c>
       <c r="D65" t="s">
+        <v>487</v>
+      </c>
+      <c r="E65" t="s">
         <v>488</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>489</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>490</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>491</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>492</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>493</v>
-      </c>
-      <c r="J65" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
       </c>
       <c r="C66" t="s">
+        <v>495</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -5733,28 +5738,28 @@
         <v>21</v>
       </c>
       <c r="C67" t="s">
+        <v>503</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -5765,28 +5770,28 @@
         <v>30</v>
       </c>
       <c r="C68" t="s">
+        <v>511</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="H68" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="I68" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="J68" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -5797,28 +5802,28 @@
         <v>39</v>
       </c>
       <c r="C69" t="s">
+        <v>519</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -5829,28 +5834,28 @@
         <v>48</v>
       </c>
       <c r="C70" t="s">
+        <v>527</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="G70" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="H70" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="I70" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="J70" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -5861,28 +5866,28 @@
         <v>57</v>
       </c>
       <c r="C71" t="s">
+        <v>535</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -5896,10 +5901,10 @@
         <v>67</v>
       </c>
       <c r="D72" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E72" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F72" t="s">
         <v>70</v>
@@ -5908,13 +5913,13 @@
         <v>69</v>
       </c>
       <c r="H72" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I72" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J72" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -5928,57 +5933,57 @@
         <v>74</v>
       </c>
       <c r="D73" t="s">
+        <v>543</v>
+      </c>
+      <c r="E73" t="s">
         <v>544</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>545</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
+        <v>321</v>
+      </c>
+      <c r="H73" t="s">
         <v>546</v>
       </c>
-      <c r="G73" t="s">
-        <v>322</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>547</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>548</v>
-      </c>
-      <c r="J73" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>550</v>
+        <v>1062</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
+        <v>549</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -5989,28 +5994,28 @@
         <v>21</v>
       </c>
       <c r="C75" t="s">
+        <v>557</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="J75" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -6021,28 +6026,28 @@
         <v>30</v>
       </c>
       <c r="C76" t="s">
+        <v>565</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="J76" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -6053,28 +6058,28 @@
         <v>39</v>
       </c>
       <c r="C77" t="s">
+        <v>573</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -6085,28 +6090,28 @@
         <v>48</v>
       </c>
       <c r="C78" t="s">
+        <v>581</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -6117,28 +6122,28 @@
         <v>57</v>
       </c>
       <c r="C79" t="s">
+        <v>589</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -6149,7 +6154,7 @@
         <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D80" t="s">
         <v>67</v>
@@ -6167,7 +6172,7 @@
         <v>195</v>
       </c>
       <c r="I80" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J80" t="s">
         <v>136</v>
@@ -6184,57 +6189,57 @@
         <v>74</v>
       </c>
       <c r="D81" t="s">
+        <v>599</v>
+      </c>
+      <c r="E81" t="s">
+        <v>600</v>
+      </c>
+      <c r="F81" t="s">
         <v>601</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>602</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
         <v>603</v>
       </c>
-      <c r="G81" t="s">
+      <c r="I81" t="s">
         <v>604</v>
       </c>
-      <c r="H81" t="s">
+      <c r="J81" t="s">
         <v>605</v>
-      </c>
-      <c r="I81" t="s">
-        <v>606</v>
-      </c>
-      <c r="J81" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
       </c>
       <c r="C82" t="s">
+        <v>607</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="G82" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="H82" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="J82" s="3" t="s">
         <v>614</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -6245,28 +6250,28 @@
         <v>21</v>
       </c>
       <c r="C83" t="s">
+        <v>615</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="J83" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -6277,28 +6282,28 @@
         <v>30</v>
       </c>
       <c r="C84" t="s">
+        <v>623</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="G84" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="H84" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -6309,28 +6314,28 @@
         <v>39</v>
       </c>
       <c r="C85" t="s">
+        <v>631</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="F85" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="H85" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="J85" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -6341,28 +6346,28 @@
         <v>48</v>
       </c>
       <c r="C86" t="s">
+        <v>639</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -6373,28 +6378,28 @@
         <v>57</v>
       </c>
       <c r="C87" t="s">
+        <v>647</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="J87" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -6405,7 +6410,7 @@
         <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D88" t="s">
         <v>195</v>
@@ -6414,10 +6419,10 @@
         <v>193</v>
       </c>
       <c r="F88" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G88" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H88" t="s">
         <v>72</v>
@@ -6440,57 +6445,57 @@
         <v>74</v>
       </c>
       <c r="D89" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E89" t="s">
+        <v>655</v>
+      </c>
+      <c r="F89" t="s">
+        <v>656</v>
+      </c>
+      <c r="G89" t="s">
         <v>657</v>
       </c>
-      <c r="F89" t="s">
+      <c r="H89" t="s">
         <v>658</v>
       </c>
-      <c r="G89" t="s">
+      <c r="I89" t="s">
+        <v>543</v>
+      </c>
+      <c r="J89" t="s">
         <v>659</v>
-      </c>
-      <c r="H89" t="s">
-        <v>660</v>
-      </c>
-      <c r="I89" t="s">
-        <v>544</v>
-      </c>
-      <c r="J89" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
       </c>
       <c r="C90" t="s">
+        <v>661</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="J90" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -6501,28 +6506,28 @@
         <v>21</v>
       </c>
       <c r="C91" t="s">
+        <v>669</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="F91" t="s">
         <v>672</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="F91" t="s">
+      <c r="H91" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="I91" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="J91" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -6533,28 +6538,28 @@
         <v>30</v>
       </c>
       <c r="C92" t="s">
+        <v>677</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="J92" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -6565,28 +6570,28 @@
         <v>39</v>
       </c>
       <c r="C93" t="s">
+        <v>685</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="G93" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="H93" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="I93" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="J93" s="3" t="s">
         <v>692</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -6597,28 +6602,28 @@
         <v>48</v>
       </c>
       <c r="C94" t="s">
+        <v>693</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="J94" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -6629,28 +6634,28 @@
         <v>57</v>
       </c>
       <c r="C95" t="s">
+        <v>701</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="J95" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -6664,13 +6669,13 @@
         <v>253</v>
       </c>
       <c r="D96" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E96" t="s">
         <v>69</v>
       </c>
       <c r="F96" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G96" t="s">
         <v>255</v>
@@ -6696,57 +6701,57 @@
         <v>74</v>
       </c>
       <c r="D97" t="s">
+        <v>709</v>
+      </c>
+      <c r="E97" t="s">
+        <v>710</v>
+      </c>
+      <c r="F97" t="s">
         <v>711</v>
       </c>
-      <c r="E97" t="s">
+      <c r="G97" t="s">
         <v>712</v>
       </c>
-      <c r="F97" t="s">
+      <c r="H97" t="s">
         <v>713</v>
       </c>
-      <c r="G97" t="s">
+      <c r="I97" t="s">
         <v>714</v>
       </c>
-      <c r="H97" t="s">
+      <c r="J97" t="s">
         <v>715</v>
-      </c>
-      <c r="I97" t="s">
-        <v>716</v>
-      </c>
-      <c r="J97" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
       </c>
       <c r="C98" t="s">
+        <v>717</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="J98" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -6757,28 +6762,28 @@
         <v>21</v>
       </c>
       <c r="C99" t="s">
+        <v>725</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="F99" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="G99" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="H99" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="I99" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="H99" s="3" t="s">
+      <c r="J99" s="3" t="s">
         <v>732</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -6789,28 +6794,28 @@
         <v>30</v>
       </c>
       <c r="C100" t="s">
+        <v>733</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="F100" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="G100" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="H100" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="I100" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="J100" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -6821,28 +6826,28 @@
         <v>39</v>
       </c>
       <c r="C101" t="s">
+        <v>741</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="F101" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="G101" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="H101" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="I101" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="J101" s="3" t="s">
         <v>748</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -6853,28 +6858,28 @@
         <v>48</v>
       </c>
       <c r="C102" t="s">
+        <v>749</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="G102" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="I102" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="J102" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -6885,28 +6890,28 @@
         <v>57</v>
       </c>
       <c r="C103" t="s">
+        <v>757</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="F103" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="G103" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="H103" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="I103" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="J103" s="3" t="s">
         <v>764</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -6920,19 +6925,19 @@
         <v>195</v>
       </c>
       <c r="D104" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E104" t="s">
         <v>72</v>
       </c>
       <c r="F104" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G104" t="s">
         <v>195</v>
       </c>
       <c r="H104" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I104" t="s">
         <v>72</v>
@@ -6952,57 +6957,57 @@
         <v>74</v>
       </c>
       <c r="D105" t="s">
+        <v>765</v>
+      </c>
+      <c r="E105" t="s">
+        <v>766</v>
+      </c>
+      <c r="F105" t="s">
         <v>767</v>
       </c>
-      <c r="E105" t="s">
+      <c r="G105" t="s">
         <v>768</v>
       </c>
-      <c r="F105" t="s">
+      <c r="H105" t="s">
         <v>769</v>
       </c>
-      <c r="G105" t="s">
+      <c r="I105" t="s">
         <v>770</v>
       </c>
-      <c r="H105" t="s">
+      <c r="J105" t="s">
         <v>771</v>
-      </c>
-      <c r="I105" t="s">
-        <v>772</v>
-      </c>
-      <c r="J105" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
       </c>
       <c r="C106" t="s">
+        <v>773</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="F106" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="G106" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="H106" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="I106" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="J106" s="3" t="s">
         <v>780</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -7013,28 +7018,28 @@
         <v>21</v>
       </c>
       <c r="C107" t="s">
+        <v>781</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="F107" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="G107" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="H107" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="I107" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="H107" s="3" t="s">
+      <c r="J107" s="3" t="s">
         <v>788</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -7045,28 +7050,28 @@
         <v>30</v>
       </c>
       <c r="C108" t="s">
+        <v>789</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="F108" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="G108" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="H108" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="I108" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="J108" s="2" t="s">
         <v>796</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -7077,28 +7082,28 @@
         <v>39</v>
       </c>
       <c r="C109" t="s">
+        <v>797</v>
+      </c>
+      <c r="D109" t="s">
+        <v>798</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="D109" t="s">
+      <c r="F109" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="G109" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="H109" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="I109" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="J109" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -7109,28 +7114,28 @@
         <v>48</v>
       </c>
       <c r="C110" t="s">
+        <v>805</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="F110" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="I110" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="J110" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -7141,28 +7146,28 @@
         <v>57</v>
       </c>
       <c r="C111" t="s">
+        <v>813</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="J111" s="2" t="s">
         <v>820</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -7176,7 +7181,7 @@
         <v>72</v>
       </c>
       <c r="D112" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E112" t="s">
         <v>196</v>
@@ -7188,7 +7193,7 @@
         <v>195</v>
       </c>
       <c r="H112" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I112" t="s">
         <v>136</v>
@@ -7208,57 +7213,57 @@
         <v>74</v>
       </c>
       <c r="D113" t="s">
+        <v>822</v>
+      </c>
+      <c r="E113" t="s">
+        <v>823</v>
+      </c>
+      <c r="F113" t="s">
         <v>824</v>
       </c>
-      <c r="E113" t="s">
+      <c r="G113" t="s">
         <v>825</v>
       </c>
-      <c r="F113" t="s">
+      <c r="H113" t="s">
         <v>826</v>
       </c>
-      <c r="G113" t="s">
+      <c r="I113" t="s">
         <v>827</v>
       </c>
-      <c r="H113" t="s">
+      <c r="J113" t="s">
         <v>828</v>
-      </c>
-      <c r="I113" t="s">
-        <v>829</v>
-      </c>
-      <c r="J113" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
       </c>
       <c r="C114" t="s">
+        <v>830</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="F114" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="H114" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="I114" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="J114" s="3" t="s">
         <v>837</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -7269,28 +7274,28 @@
         <v>21</v>
       </c>
       <c r="C115" t="s">
+        <v>838</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="F115" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="G115" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="H115" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="I115" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="J115" s="3" t="s">
         <v>845</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -7301,28 +7306,28 @@
         <v>30</v>
       </c>
       <c r="C116" t="s">
+        <v>846</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="E116" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="F116" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="G116" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="H116" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="I116" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="H116" s="3" t="s">
+      <c r="J116" s="3" t="s">
         <v>853</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -7333,28 +7338,28 @@
         <v>39</v>
       </c>
       <c r="C117" t="s">
+        <v>854</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="H117" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="I117" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="J117" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -7365,28 +7370,28 @@
         <v>48</v>
       </c>
       <c r="C118" t="s">
+        <v>862</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="F118" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="G118" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="H118" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="J118" s="2" t="s">
         <v>869</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -7397,28 +7402,28 @@
         <v>57</v>
       </c>
       <c r="C119" t="s">
+        <v>870</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="J119" s="2" t="s">
         <v>877</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -7435,10 +7440,10 @@
         <v>195</v>
       </c>
       <c r="E120" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F120" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G120" t="s">
         <v>256</v>
@@ -7447,10 +7452,10 @@
         <v>194</v>
       </c>
       <c r="I120" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J120" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -7464,57 +7469,57 @@
         <v>74</v>
       </c>
       <c r="D121" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E121" t="s">
+        <v>878</v>
+      </c>
+      <c r="F121" t="s">
+        <v>879</v>
+      </c>
+      <c r="G121" t="s">
         <v>880</v>
       </c>
-      <c r="F121" t="s">
+      <c r="H121" t="s">
         <v>881</v>
       </c>
-      <c r="G121" t="s">
+      <c r="I121" t="s">
         <v>882</v>
       </c>
-      <c r="H121" t="s">
+      <c r="J121" t="s">
         <v>883</v>
-      </c>
-      <c r="I121" t="s">
-        <v>884</v>
-      </c>
-      <c r="J121" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
       </c>
       <c r="C122" t="s">
+        <v>885</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="F122" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="G122" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="H122" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="I122" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="J122" s="3" t="s">
         <v>892</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -7525,28 +7530,28 @@
         <v>21</v>
       </c>
       <c r="C123" t="s">
+        <v>893</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="F123" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="G123" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="H123" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="I123" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="J123" s="3" t="s">
         <v>900</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -7557,28 +7562,28 @@
         <v>30</v>
       </c>
       <c r="C124" t="s">
+        <v>901</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="G124" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="H124" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="I124" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="J124" s="2" t="s">
         <v>908</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -7589,28 +7594,28 @@
         <v>39</v>
       </c>
       <c r="C125" t="s">
+        <v>909</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="F125" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="G125" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="H125" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="I125" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="J125" s="2" t="s">
         <v>916</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -7621,28 +7626,28 @@
         <v>48</v>
       </c>
       <c r="C126" t="s">
+        <v>917</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="F126" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="G126" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="H126" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="I126" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="H126" s="2" t="s">
+      <c r="J126" s="2" t="s">
         <v>924</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -7653,28 +7658,28 @@
         <v>57</v>
       </c>
       <c r="C127" t="s">
+        <v>925</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="J127" s="2" t="s">
         <v>932</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -7685,7 +7690,7 @@
         <v>66</v>
       </c>
       <c r="C128" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D128" t="s">
         <v>193</v>
@@ -7703,7 +7708,7 @@
         <v>194</v>
       </c>
       <c r="I128" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J128" t="s">
         <v>70</v>
@@ -7720,57 +7725,57 @@
         <v>74</v>
       </c>
       <c r="D129" t="s">
+        <v>933</v>
+      </c>
+      <c r="E129" t="s">
+        <v>934</v>
+      </c>
+      <c r="F129" t="s">
         <v>935</v>
       </c>
-      <c r="E129" t="s">
+      <c r="G129" t="s">
         <v>936</v>
       </c>
-      <c r="F129" t="s">
+      <c r="H129" t="s">
         <v>937</v>
       </c>
-      <c r="G129" t="s">
+      <c r="I129" t="s">
         <v>938</v>
       </c>
-      <c r="H129" t="s">
+      <c r="J129" t="s">
         <v>939</v>
-      </c>
-      <c r="I129" t="s">
-        <v>940</v>
-      </c>
-      <c r="J129" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
       </c>
       <c r="C130" t="s">
+        <v>941</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="F130" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="G130" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="H130" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="I130" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="J130" s="3" t="s">
         <v>948</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -7781,28 +7786,28 @@
         <v>21</v>
       </c>
       <c r="C131" t="s">
+        <v>949</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="F131" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="G131" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="H131" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="I131" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="J131" s="3" t="s">
         <v>956</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -7813,28 +7818,28 @@
         <v>30</v>
       </c>
       <c r="C132" t="s">
+        <v>957</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="F132" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="G132" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="H132" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="I132" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="J132" s="3" t="s">
         <v>964</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>965</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -7845,28 +7850,28 @@
         <v>39</v>
       </c>
       <c r="C133" t="s">
+        <v>965</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="E133" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="F133" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="G133" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="H133" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="I133" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="J133" s="3" t="s">
         <v>972</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -7877,28 +7882,28 @@
         <v>48</v>
       </c>
       <c r="C134" t="s">
+        <v>973</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="G134" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="H134" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="I134" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="J134" s="3" t="s">
         <v>980</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -7909,28 +7914,28 @@
         <v>57</v>
       </c>
       <c r="C135" t="s">
+        <v>981</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="E135" t="s">
         <v>983</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="F135" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="E135" t="s">
+      <c r="G135" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="H135" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="I135" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="J135" s="3" t="s">
         <v>988</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>989</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -7944,25 +7949,25 @@
         <v>257</v>
       </c>
       <c r="D136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E136" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F136" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G136" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H136" t="s">
         <v>133</v>
       </c>
       <c r="I136" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J136" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -7976,57 +7981,57 @@
         <v>74</v>
       </c>
       <c r="D137" t="s">
+        <v>989</v>
+      </c>
+      <c r="E137" t="s">
+        <v>990</v>
+      </c>
+      <c r="F137" t="s">
         <v>991</v>
       </c>
-      <c r="E137" t="s">
+      <c r="G137" t="s">
         <v>992</v>
       </c>
-      <c r="F137" t="s">
+      <c r="H137" t="s">
         <v>993</v>
       </c>
-      <c r="G137" t="s">
+      <c r="I137" t="s">
         <v>994</v>
       </c>
-      <c r="H137" t="s">
+      <c r="J137" t="s">
         <v>995</v>
-      </c>
-      <c r="I137" t="s">
-        <v>996</v>
-      </c>
-      <c r="J137" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
       </c>
       <c r="C138" t="s">
+        <v>997</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="F138" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="G138" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="H138" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="I138" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="H138" s="2" t="s">
+      <c r="J138" s="2" t="s">
         <v>1004</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -8037,28 +8042,28 @@
         <v>21</v>
       </c>
       <c r="C139" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="F139" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="G139" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="H139" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="I139" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="H139" s="2" t="s">
+      <c r="J139" s="2" t="s">
         <v>1012</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J139" s="2" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -8069,28 +8074,28 @@
         <v>30</v>
       </c>
       <c r="C140" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="F140" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="G140" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="H140" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="I140" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="H140" s="2" t="s">
+      <c r="J140" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -8101,28 +8106,28 @@
         <v>39</v>
       </c>
       <c r="C141" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="F141" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="G141" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="H141" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="I141" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="H141" s="2" t="s">
+      <c r="J141" s="2" t="s">
         <v>1028</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -8133,28 +8138,28 @@
         <v>48</v>
       </c>
       <c r="C142" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="G142" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="H142" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="I142" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="H142" s="2" t="s">
+      <c r="J142" s="2" t="s">
         <v>1036</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -8165,28 +8170,28 @@
         <v>57</v>
       </c>
       <c r="C143" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="F143" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="G143" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="H143" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="I143" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="H143" s="2" t="s">
+      <c r="J143" s="2" t="s">
         <v>1044</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -8197,7 +8202,7 @@
         <v>66</v>
       </c>
       <c r="C144" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D144" t="s">
         <v>136</v>
@@ -8206,13 +8211,13 @@
         <v>69</v>
       </c>
       <c r="F144" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G144" t="s">
         <v>72</v>
       </c>
       <c r="H144" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I144" t="s">
         <v>194</v>
@@ -8232,25 +8237,25 @@
         <v>74</v>
       </c>
       <c r="D145" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F145" t="s">
         <v>1048</v>
       </c>
-      <c r="E145" t="s">
+      <c r="G145" t="s">
         <v>1049</v>
       </c>
-      <c r="F145" t="s">
+      <c r="H145" t="s">
         <v>1050</v>
       </c>
-      <c r="G145" t="s">
+      <c r="I145" t="s">
         <v>1051</v>
       </c>
-      <c r="H145" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I145" t="s">
-        <v>1053</v>
-      </c>
       <c r="J145" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -8258,7 +8263,7 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C146" s="4">
         <v>5.8888888888888893</v>
@@ -8290,31 +8295,31 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C147" t="s">
         <v>74</v>
       </c>
       <c r="D147" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F147" t="s">
         <v>1056</v>
       </c>
-      <c r="E147" t="s">
+      <c r="G147" t="s">
         <v>1057</v>
       </c>
-      <c r="F147" t="s">
+      <c r="H147" t="s">
         <v>1058</v>
       </c>
-      <c r="G147" t="s">
+      <c r="I147" t="s">
+        <v>547</v>
+      </c>
+      <c r="J147" t="s">
         <v>1059</v>
-      </c>
-      <c r="H147" t="s">
-        <v>1060</v>
-      </c>
-      <c r="I147" t="s">
-        <v>548</v>
-      </c>
-      <c r="J147" t="s">
-        <v>1061</v>
       </c>
     </row>
   </sheetData>
